--- a/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
@@ -418,10 +418,10 @@
         <v>0.1131833204696733</v>
       </c>
       <c r="D2">
-        <v>0.38514253245026</v>
+        <v>0.3851425324504589</v>
       </c>
       <c r="E2">
-        <v>0.04369584575044883</v>
+        <v>0.04369584575039909</v>
       </c>
       <c r="F2">
         <v>7.775310924958518</v>
@@ -439,10 +439,10 @@
         <v>8.985743242722521</v>
       </c>
       <c r="K2">
-        <v>0.07522386315141816</v>
+        <v>0.07522386315142526</v>
       </c>
       <c r="L2">
-        <v>5.381775508002676</v>
+        <v>5.381775508002647</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09422669463818067</v>
+        <v>0.09422669463845068</v>
       </c>
       <c r="D3">
-        <v>0.312238270875369</v>
+        <v>0.312238270875568</v>
       </c>
       <c r="E3">
-        <v>0.03918983970368473</v>
+        <v>0.03918983970370071</v>
       </c>
       <c r="F3">
-        <v>6.407119780381578</v>
+        <v>6.407119780381521</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.551883605374599</v>
+        <v>7.551883605374655</v>
       </c>
       <c r="K3">
-        <v>0.06470192370442618</v>
+        <v>0.06470192370445105</v>
       </c>
       <c r="L3">
-        <v>4.517997212320893</v>
+        <v>4.51799721232085</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08367385451636267</v>
+        <v>0.08367385451646214</v>
       </c>
       <c r="D4">
-        <v>0.2738384827701879</v>
+        <v>0.2738384827706284</v>
       </c>
       <c r="E4">
-        <v>0.03649257985057552</v>
+        <v>0.03649257985056487</v>
       </c>
       <c r="F4">
-        <v>5.660843754133055</v>
+        <v>5.660843754133083</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>6.727704742414545</v>
       </c>
       <c r="K4">
-        <v>0.05853389022365008</v>
+        <v>0.05853389022362165</v>
       </c>
       <c r="L4">
-        <v>4.023069141737906</v>
+        <v>4.023069141737935</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07958025239413757</v>
+        <v>0.07958025239344124</v>
       </c>
       <c r="D5">
-        <v>0.2593989858960555</v>
+        <v>0.2593989858956007</v>
       </c>
       <c r="E5">
-        <v>0.03540530748087711</v>
+        <v>0.03540530748084869</v>
       </c>
       <c r="F5">
-        <v>5.374584086321079</v>
+        <v>5.37458408632105</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.402383109135968</v>
+        <v>6.402383109135997</v>
       </c>
       <c r="K5">
-        <v>0.05607334843924328</v>
+        <v>0.05607334843926637</v>
       </c>
       <c r="L5">
-        <v>3.828045250465891</v>
+        <v>3.828045250465919</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,13 +570,13 @@
         <v>0.07891144456667121</v>
       </c>
       <c r="D6">
-        <v>0.257065227840684</v>
+        <v>0.2570652278404708</v>
       </c>
       <c r="E6">
         <v>0.03522535762528634</v>
       </c>
       <c r="F6">
-        <v>5.327995396303976</v>
+        <v>5.327995396304004</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>6.348915788286007</v>
       </c>
       <c r="K6">
-        <v>0.05566749953308303</v>
+        <v>0.05566749953310612</v>
       </c>
       <c r="L6">
-        <v>3.79601141379338</v>
+        <v>3.796011413793366</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08361788218800825</v>
+        <v>0.0836178821876814</v>
       </c>
       <c r="D7">
-        <v>0.2736392772909682</v>
+        <v>0.2736392772904992</v>
       </c>
       <c r="E7">
-        <v>0.03647787434236704</v>
+        <v>0.03647787434232974</v>
       </c>
       <c r="F7">
-        <v>5.656917111640212</v>
+        <v>5.656917111640468</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.723278608850819</v>
+        <v>6.723278608850904</v>
       </c>
       <c r="K7">
-        <v>0.0585005142888626</v>
+        <v>0.05850051428887326</v>
       </c>
       <c r="L7">
-        <v>4.020414460441046</v>
+        <v>4.020414460441131</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1063736948456722</v>
+        <v>0.1063736948460701</v>
       </c>
       <c r="D8">
-        <v>0.3584008283460349</v>
+        <v>0.3584008283462623</v>
       </c>
       <c r="E8">
-        <v>0.04212365397376772</v>
+        <v>0.04212365397377837</v>
       </c>
       <c r="F8">
-        <v>7.279953594684798</v>
+        <v>7.279953594684741</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.477092923003539</v>
+        <v>8.477092923003511</v>
       </c>
       <c r="K8">
-        <v>0.07152030123518216</v>
+        <v>0.0715203012351715</v>
       </c>
       <c r="L8">
-        <v>5.074974519688666</v>
+        <v>5.074974519688652</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1647209792371598</v>
+        <v>0.1647209792367335</v>
       </c>
       <c r="D9">
         <v>0.6057354963647583</v>
       </c>
       <c r="E9">
-        <v>0.05420710411149621</v>
+        <v>0.05420710411153884</v>
       </c>
       <c r="F9">
-        <v>11.65041378756192</v>
+        <v>11.65041378756206</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.63754370297565</v>
+        <v>12.63754370297568</v>
       </c>
       <c r="K9">
-        <v>0.1009826927372295</v>
+        <v>0.1009826927372437</v>
       </c>
       <c r="L9">
-        <v>7.595808631451689</v>
+        <v>7.595808631451717</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.234043959925458</v>
+        <v>0.2340439599251454</v>
       </c>
       <c r="D10">
-        <v>0.9489250026946365</v>
+        <v>0.9489250026948071</v>
       </c>
       <c r="E10">
-        <v>0.06557260840875045</v>
+        <v>0.06557260840870072</v>
       </c>
       <c r="F10">
-        <v>17.17942704484636</v>
+        <v>17.17942704484642</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.10501836615092</v>
+        <v>17.10501836615106</v>
       </c>
       <c r="K10">
-        <v>0.1309611625287346</v>
+        <v>0.1309611625287275</v>
       </c>
       <c r="L10">
-        <v>10.32857816304499</v>
+        <v>10.32857816304502</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D11">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E11">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F11">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K11">
         <v>0.1563062776768156</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D12">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E12">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F12">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K12">
         <v>0.1563062776768156</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D13">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E13">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F13">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K13">
         <v>0.1563062776768156</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D14">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E14">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F14">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K14">
         <v>0.1563062776768156</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D15">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E15">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F15">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K15">
         <v>0.1563062776768156</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D16">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E16">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F16">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K16">
         <v>0.1563062776768156</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D17">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E17">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F17">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K17">
         <v>0.1563062776768156</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D18">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E18">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F18">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K18">
         <v>0.1563062776768156</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D19">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E19">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F19">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K19">
         <v>0.1563062776768156</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D20">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E20">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F20">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K20">
         <v>0.1563062776768156</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D21">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E21">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F21">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K21">
         <v>0.1563062776768156</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D22">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E22">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F22">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K22">
         <v>0.1563062776768156</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D23">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E23">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F23">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K23">
         <v>0.1563062776768156</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D24">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E24">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F24">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K24">
         <v>0.1563062776768156</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2994594061855764</v>
+        <v>0.2994594061855196</v>
       </c>
       <c r="D25">
-        <v>1.321669277844904</v>
+        <v>1.321669277844535</v>
       </c>
       <c r="E25">
-        <v>0.07487257948554671</v>
+        <v>0.07487257948557513</v>
       </c>
       <c r="F25">
-        <v>22.72559012178937</v>
+        <v>22.72559012178931</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20.95155361946456</v>
+        <v>20.95155361946451</v>
       </c>
       <c r="K25">
         <v>0.1563062776768156</v>

--- a/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
@@ -418,10 +418,10 @@
         <v>0.1131833204696733</v>
       </c>
       <c r="D2">
-        <v>0.3851425324504589</v>
+        <v>0.38514253245026</v>
       </c>
       <c r="E2">
-        <v>0.04369584575039909</v>
+        <v>0.04369584575044883</v>
       </c>
       <c r="F2">
         <v>7.775310924958518</v>
@@ -439,10 +439,10 @@
         <v>8.985743242722521</v>
       </c>
       <c r="K2">
-        <v>0.07522386315142526</v>
+        <v>0.07522386315141816</v>
       </c>
       <c r="L2">
-        <v>5.381775508002647</v>
+        <v>5.381775508002676</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09422669463845068</v>
+        <v>0.09422669463818067</v>
       </c>
       <c r="D3">
-        <v>0.312238270875568</v>
+        <v>0.312238270875369</v>
       </c>
       <c r="E3">
-        <v>0.03918983970370071</v>
+        <v>0.03918983970368473</v>
       </c>
       <c r="F3">
-        <v>6.407119780381521</v>
+        <v>6.407119780381578</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.551883605374655</v>
+        <v>7.551883605374599</v>
       </c>
       <c r="K3">
-        <v>0.06470192370445105</v>
+        <v>0.06470192370442618</v>
       </c>
       <c r="L3">
-        <v>4.51799721232085</v>
+        <v>4.517997212320893</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08367385451646214</v>
+        <v>0.08367385451636267</v>
       </c>
       <c r="D4">
-        <v>0.2738384827706284</v>
+        <v>0.2738384827701879</v>
       </c>
       <c r="E4">
-        <v>0.03649257985056487</v>
+        <v>0.03649257985057552</v>
       </c>
       <c r="F4">
-        <v>5.660843754133083</v>
+        <v>5.660843754133055</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>6.727704742414545</v>
       </c>
       <c r="K4">
-        <v>0.05853389022362165</v>
+        <v>0.05853389022365008</v>
       </c>
       <c r="L4">
-        <v>4.023069141737935</v>
+        <v>4.023069141737906</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07958025239344124</v>
+        <v>0.07958025239413757</v>
       </c>
       <c r="D5">
-        <v>0.2593989858956007</v>
+        <v>0.2593989858960555</v>
       </c>
       <c r="E5">
-        <v>0.03540530748084869</v>
+        <v>0.03540530748087711</v>
       </c>
       <c r="F5">
-        <v>5.37458408632105</v>
+        <v>5.374584086321079</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.402383109135997</v>
+        <v>6.402383109135968</v>
       </c>
       <c r="K5">
-        <v>0.05607334843926637</v>
+        <v>0.05607334843924328</v>
       </c>
       <c r="L5">
-        <v>3.828045250465919</v>
+        <v>3.828045250465891</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,13 +570,13 @@
         <v>0.07891144456667121</v>
       </c>
       <c r="D6">
-        <v>0.2570652278404708</v>
+        <v>0.257065227840684</v>
       </c>
       <c r="E6">
         <v>0.03522535762528634</v>
       </c>
       <c r="F6">
-        <v>5.327995396304004</v>
+        <v>5.327995396303976</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>6.348915788286007</v>
       </c>
       <c r="K6">
-        <v>0.05566749953310612</v>
+        <v>0.05566749953308303</v>
       </c>
       <c r="L6">
-        <v>3.796011413793366</v>
+        <v>3.79601141379338</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0836178821876814</v>
+        <v>0.08361788218800825</v>
       </c>
       <c r="D7">
-        <v>0.2736392772904992</v>
+        <v>0.2736392772909682</v>
       </c>
       <c r="E7">
-        <v>0.03647787434232974</v>
+        <v>0.03647787434236704</v>
       </c>
       <c r="F7">
-        <v>5.656917111640468</v>
+        <v>5.656917111640212</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.723278608850904</v>
+        <v>6.723278608850819</v>
       </c>
       <c r="K7">
-        <v>0.05850051428887326</v>
+        <v>0.0585005142888626</v>
       </c>
       <c r="L7">
-        <v>4.020414460441131</v>
+        <v>4.020414460441046</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1063736948460701</v>
+        <v>0.1063736948456722</v>
       </c>
       <c r="D8">
-        <v>0.3584008283462623</v>
+        <v>0.3584008283460349</v>
       </c>
       <c r="E8">
-        <v>0.04212365397377837</v>
+        <v>0.04212365397376772</v>
       </c>
       <c r="F8">
-        <v>7.279953594684741</v>
+        <v>7.279953594684798</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.477092923003511</v>
+        <v>8.477092923003539</v>
       </c>
       <c r="K8">
-        <v>0.0715203012351715</v>
+        <v>0.07152030123518216</v>
       </c>
       <c r="L8">
-        <v>5.074974519688652</v>
+        <v>5.074974519688666</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1647209792367335</v>
+        <v>0.1647209792371598</v>
       </c>
       <c r="D9">
         <v>0.6057354963647583</v>
       </c>
       <c r="E9">
-        <v>0.05420710411153884</v>
+        <v>0.05420710411149621</v>
       </c>
       <c r="F9">
-        <v>11.65041378756206</v>
+        <v>11.65041378756192</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.63754370297568</v>
+        <v>12.63754370297565</v>
       </c>
       <c r="K9">
-        <v>0.1009826927372437</v>
+        <v>0.1009826927372295</v>
       </c>
       <c r="L9">
-        <v>7.595808631451717</v>
+        <v>7.595808631451689</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2340439599251454</v>
+        <v>0.234043959925458</v>
       </c>
       <c r="D10">
-        <v>0.9489250026948071</v>
+        <v>0.9489250026946365</v>
       </c>
       <c r="E10">
-        <v>0.06557260840870072</v>
+        <v>0.06557260840875045</v>
       </c>
       <c r="F10">
-        <v>17.17942704484642</v>
+        <v>17.17942704484636</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.10501836615106</v>
+        <v>17.10501836615092</v>
       </c>
       <c r="K10">
-        <v>0.1309611625287275</v>
+        <v>0.1309611625287346</v>
       </c>
       <c r="L10">
-        <v>10.32857816304502</v>
+        <v>10.32857816304499</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D11">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E11">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F11">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K11">
         <v>0.1563062776768156</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D12">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E12">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F12">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K12">
         <v>0.1563062776768156</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D13">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E13">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F13">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K13">
         <v>0.1563062776768156</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D14">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E14">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F14">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K14">
         <v>0.1563062776768156</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D15">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E15">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F15">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K15">
         <v>0.1563062776768156</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D16">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E16">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F16">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K16">
         <v>0.1563062776768156</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D17">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E17">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F17">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K17">
         <v>0.1563062776768156</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D18">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E18">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F18">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K18">
         <v>0.1563062776768156</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D19">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E19">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F19">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K19">
         <v>0.1563062776768156</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D20">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E20">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F20">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K20">
         <v>0.1563062776768156</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D21">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E21">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F21">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K21">
         <v>0.1563062776768156</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D22">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E22">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F22">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K22">
         <v>0.1563062776768156</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D23">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E23">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F23">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K23">
         <v>0.1563062776768156</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D24">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E24">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F24">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K24">
         <v>0.1563062776768156</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2994594061855196</v>
+        <v>0.2994594061855764</v>
       </c>
       <c r="D25">
-        <v>1.321669277844535</v>
+        <v>1.321669277844904</v>
       </c>
       <c r="E25">
-        <v>0.07487257948557513</v>
+        <v>0.07487257948554671</v>
       </c>
       <c r="F25">
-        <v>22.72559012178931</v>
+        <v>22.72559012178937</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20.95155361946451</v>
+        <v>20.95155361946456</v>
       </c>
       <c r="K25">
         <v>0.1563062776768156</v>

--- a/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1131833204696733</v>
+        <v>0.1120144306851216</v>
       </c>
       <c r="D2">
-        <v>0.38514253245026</v>
+        <v>0.3789350165664445</v>
       </c>
       <c r="E2">
-        <v>0.04369584575044883</v>
+        <v>0.04187893502810347</v>
       </c>
       <c r="F2">
-        <v>7.775310924958518</v>
+        <v>7.68138415867179</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000660963841428486</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,16 +439,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.985743242722521</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.07522386315141816</v>
+        <v>8.88743839404242</v>
       </c>
       <c r="L2">
-        <v>5.381775508002676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.07343120101766942</v>
+      </c>
+      <c r="M2">
+        <v>5.327018831802349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09422669463818067</v>
+        <v>0.09329170893018102</v>
       </c>
       <c r="D3">
-        <v>0.312238270875369</v>
+        <v>0.3089309331498953</v>
       </c>
       <c r="E3">
-        <v>0.03918983970368473</v>
+        <v>0.0373994322367821</v>
       </c>
       <c r="F3">
-        <v>6.407119780381578</v>
+        <v>6.348275013491985</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006906423090664352</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,16 +480,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.551883605374599</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.06470192370442618</v>
+        <v>7.474697264531642</v>
       </c>
       <c r="L3">
-        <v>4.517997212320893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.06306541542373978</v>
+      </c>
+      <c r="M3">
+        <v>4.475790331726671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08367385451636267</v>
+        <v>0.0828523189481416</v>
       </c>
       <c r="D4">
-        <v>0.2738384827701879</v>
+        <v>0.2721087984276664</v>
       </c>
       <c r="E4">
-        <v>0.03649257985057552</v>
+        <v>0.03471320310817738</v>
       </c>
       <c r="F4">
-        <v>5.660843754133055</v>
+        <v>5.620772951322522</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007083425819989685</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,16 +521,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.727704742414545</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.05853389022365008</v>
+        <v>6.661897883471141</v>
       </c>
       <c r="L4">
-        <v>4.023069141737906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.05698191100005801</v>
+      </c>
+      <c r="M4">
+        <v>3.987586609182628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,19 +541,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07958025239413757</v>
+        <v>0.07879974256347566</v>
       </c>
       <c r="D5">
-        <v>0.2593989858960555</v>
+        <v>0.2582787025227731</v>
       </c>
       <c r="E5">
-        <v>0.03540530748087711</v>
+        <v>0.03362950273583998</v>
       </c>
       <c r="F5">
-        <v>5.374584086321079</v>
+        <v>5.341702828973098</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007154832042145469</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,16 +562,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.402383109135968</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.05607334843924328</v>
+        <v>6.340950369585926</v>
       </c>
       <c r="L5">
-        <v>3.828045250465891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.05455393497591743</v>
+      </c>
+      <c r="M5">
+        <v>3.795139694180634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07891144456667121</v>
+        <v>0.07813748320496927</v>
       </c>
       <c r="D6">
-        <v>0.257065227840684</v>
+        <v>0.256044489117528</v>
       </c>
       <c r="E6">
-        <v>0.03522535762528634</v>
+        <v>0.03345009871494753</v>
       </c>
       <c r="F6">
-        <v>5.327995396303976</v>
+        <v>5.296285149639232</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007166659129792764</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,16 +603,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.348915788286007</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.05566749953308303</v>
+        <v>6.288196389772764</v>
       </c>
       <c r="L6">
-        <v>3.79601141379338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.05415340091100873</v>
+      </c>
+      <c r="M6">
+        <v>3.76352568924419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08361788218800825</v>
+        <v>0.08279691859547711</v>
       </c>
       <c r="D7">
-        <v>0.2736392772909682</v>
+        <v>0.2719179293882945</v>
       </c>
       <c r="E7">
-        <v>0.03647787434236704</v>
+        <v>0.03469854911130987</v>
       </c>
       <c r="F7">
-        <v>5.656917111640212</v>
+        <v>5.616944898528089</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000708439111339302</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,16 +644,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.723278608850819</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0585005142888626</v>
+        <v>6.657531668642548</v>
       </c>
       <c r="L7">
-        <v>4.020414460441046</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.05694898088651001</v>
+      </c>
+      <c r="M7">
+        <v>3.98496725854362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1063736948456722</v>
+        <v>0.1052935574759886</v>
       </c>
       <c r="D8">
-        <v>0.3584008283460349</v>
+        <v>0.3532489156052065</v>
       </c>
       <c r="E8">
-        <v>0.04212365397376772</v>
+        <v>0.04031727377981653</v>
       </c>
       <c r="F8">
-        <v>7.279953594684798</v>
+        <v>7.198877729926437</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006713477681822284</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,16 +685,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.477092923003539</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.07152030123518216</v>
+        <v>8.386503937092471</v>
       </c>
       <c r="L8">
-        <v>5.074974519688666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.069784584863541</v>
+      </c>
+      <c r="M8">
+        <v>5.024812997694539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1647209792371598</v>
+        <v>0.1626570361775066</v>
       </c>
       <c r="D9">
-        <v>0.6057354963647583</v>
+        <v>0.5905460092227486</v>
       </c>
       <c r="E9">
-        <v>0.05420710411149621</v>
+        <v>0.05226752617435437</v>
       </c>
       <c r="F9">
-        <v>11.65041378756192</v>
+        <v>11.44393820305459</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005899817035635794</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,16 +726,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.63754370297565</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1009826927372295</v>
+        <v>12.4723476956342</v>
       </c>
       <c r="L9">
-        <v>7.595808631451689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.09870113548965875</v>
+      </c>
+      <c r="M9">
+        <v>7.500831868285189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.234043959925458</v>
+        <v>0.229544331937916</v>
       </c>
       <c r="D10">
-        <v>0.9489250026946365</v>
+        <v>0.9144523940128693</v>
       </c>
       <c r="E10">
-        <v>0.06557260840875045</v>
+        <v>0.06326016510533705</v>
       </c>
       <c r="F10">
-        <v>17.17942704484636</v>
+        <v>16.71941656291557</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005094984472588937</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,16 +767,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.10501836615092</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1309611625287346</v>
+        <v>16.79076737984147</v>
       </c>
       <c r="L10">
-        <v>10.32857816304499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1276120367966591</v>
+      </c>
+      <c r="M10">
+        <v>10.14260748260671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2994594061855764</v>
+        <v>0.2872136196654509</v>
       </c>
       <c r="D11">
-        <v>1.321669277844904</v>
+        <v>1.233580079966089</v>
       </c>
       <c r="E11">
-        <v>0.07487257948554671</v>
+        <v>0.07135817211898576</v>
       </c>
       <c r="F11">
-        <v>22.72559012178937</v>
+        <v>21.5379450084551</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004479084544171517</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,16 +808,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1563062776768156</v>
+        <v>20.20957705652481</v>
       </c>
       <c r="L11">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.149942002965787</v>
+      </c>
+      <c r="M11">
+        <v>12.24868910620975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2994594061855764</v>
+        <v>0.2872136196654509</v>
       </c>
       <c r="D12">
-        <v>1.321669277844904</v>
+        <v>1.233580079966089</v>
       </c>
       <c r="E12">
-        <v>0.07487257948554671</v>
+        <v>0.07135817211898576</v>
       </c>
       <c r="F12">
-        <v>22.72559012178937</v>
+        <v>21.5379450084551</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004479084544171517</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,16 +849,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1563062776768156</v>
+        <v>20.20957705652481</v>
       </c>
       <c r="L12">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.149942002965787</v>
+      </c>
+      <c r="M12">
+        <v>12.24868910620975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2994594061855764</v>
+        <v>0.346878355533633</v>
       </c>
       <c r="D13">
-        <v>1.321669277844904</v>
+        <v>1.607273074943549</v>
       </c>
       <c r="E13">
-        <v>0.07487257948554671</v>
+        <v>0.07980757541658079</v>
       </c>
       <c r="F13">
-        <v>22.72559012178937</v>
+        <v>26.81770757395526</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0003893557642829151</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,16 +890,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1563062776768156</v>
+        <v>23.50441703157924</v>
       </c>
       <c r="L13">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.1721296666695871</v>
+      </c>
+      <c r="M13">
+        <v>14.28468933178033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2994594061855764</v>
+        <v>0.3960920008524766</v>
       </c>
       <c r="D14">
-        <v>1.321669277844904</v>
+        <v>1.957587538147379</v>
       </c>
       <c r="E14">
-        <v>0.07487257948554671</v>
+        <v>0.08853393598906045</v>
       </c>
       <c r="F14">
-        <v>22.72559012178937</v>
+        <v>31.46165164643588</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0003436937744062603</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,16 +931,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1563062776768156</v>
+        <v>26.07634569883948</v>
       </c>
       <c r="L14">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.1914791859194303</v>
+      </c>
+      <c r="M14">
+        <v>15.86948159748391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2994594061855764</v>
+        <v>0.4104592809882206</v>
       </c>
       <c r="D15">
-        <v>1.321669277844904</v>
+        <v>2.069212163198074</v>
       </c>
       <c r="E15">
-        <v>0.07487257948554671</v>
+        <v>0.09176707878279444</v>
       </c>
       <c r="F15">
-        <v>22.72559012178937</v>
+        <v>32.88288155051771</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0003306242974504582</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,16 +972,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1563062776768156</v>
+        <v>26.80932967367352</v>
       </c>
       <c r="L15">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.1976836672263609</v>
+      </c>
+      <c r="M15">
+        <v>16.31831862007439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2994594061855764</v>
+        <v>0.4621877286357119</v>
       </c>
       <c r="D16">
-        <v>1.321669277844904</v>
+        <v>2.523315017434413</v>
       </c>
       <c r="E16">
-        <v>0.07487257948554671</v>
+        <v>0.1089617529104441</v>
       </c>
       <c r="F16">
-        <v>22.72559012178937</v>
+        <v>38.3751101830224</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0002834605450443878</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,16 +1013,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1563062776768156</v>
+        <v>29.42829861121791</v>
       </c>
       <c r="L16">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.224909455983525</v>
+      </c>
+      <c r="M16">
+        <v>17.89684394361717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2994594061855764</v>
+        <v>0.4833400058815869</v>
       </c>
       <c r="D17">
-        <v>1.321669277844904</v>
+        <v>2.745904645050928</v>
       </c>
       <c r="E17">
-        <v>0.07487257948554671</v>
+        <v>0.1208421674189939</v>
       </c>
       <c r="F17">
-        <v>22.72559012178937</v>
+        <v>40.89217178880131</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0002633731060020581</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,16 +1054,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1563062776768156</v>
+        <v>30.52465443264163</v>
       </c>
       <c r="L17">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2403951347675708</v>
+      </c>
+      <c r="M17">
+        <v>18.53576309183126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2994594061855764</v>
+        <v>0.4934485325763944</v>
       </c>
       <c r="D18">
-        <v>1.321669277844904</v>
+        <v>2.865469071602291</v>
       </c>
       <c r="E18">
-        <v>0.07487257948554671</v>
+        <v>0.1285143603228214</v>
       </c>
       <c r="F18">
-        <v>22.72559012178937</v>
+        <v>42.19383896462949</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0002533019091276977</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,16 +1095,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1563062776768156</v>
+        <v>31.06817238533887</v>
       </c>
       <c r="L18">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2495905880471447</v>
+      </c>
+      <c r="M18">
+        <v>18.84408632597032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2994594061855764</v>
+        <v>0.4965824324613806</v>
       </c>
       <c r="D19">
-        <v>1.321669277844904</v>
+        <v>2.9049429051137</v>
       </c>
       <c r="E19">
-        <v>0.07487257948554671</v>
+        <v>0.1312760901375345</v>
       </c>
       <c r="F19">
-        <v>22.72559012178937</v>
+        <v>42.61554550060242</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0002500811232346362</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,16 +1136,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1563062776768156</v>
+        <v>31.24096884661654</v>
       </c>
       <c r="L19">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2527853026682862</v>
+      </c>
+      <c r="M19">
+        <v>18.94059092269913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2994594061855764</v>
+        <v>0.4813195462513136</v>
       </c>
       <c r="D20">
-        <v>1.321669277844904</v>
+        <v>2.723209688661882</v>
       </c>
       <c r="E20">
-        <v>0.07487257948554671</v>
+        <v>0.1194956910588125</v>
       </c>
       <c r="F20">
-        <v>22.72559012178937</v>
+        <v>40.64104591919778</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0002653397596122676</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,16 +1177,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1563062776768156</v>
+        <v>30.4179960665478</v>
       </c>
       <c r="L20">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2387253111155552</v>
+      </c>
+      <c r="M20">
+        <v>18.47450782481218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2994594061855764</v>
+        <v>0.3875892934738374</v>
       </c>
       <c r="D21">
-        <v>1.321669277844904</v>
+        <v>1.89374224893885</v>
       </c>
       <c r="E21">
-        <v>0.07487257948554671</v>
+        <v>0.08680541776490713</v>
       </c>
       <c r="F21">
-        <v>22.72559012178937</v>
+        <v>30.63617448370439</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0003514680334529771</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,16 +1218,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.1563062776768156</v>
+        <v>25.63940401846469</v>
       </c>
       <c r="L21">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.1879628788409597</v>
+      </c>
+      <c r="M21">
+        <v>15.60111534525683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2994594061855764</v>
+        <v>0.3875892934738374</v>
       </c>
       <c r="D22">
-        <v>1.321669277844904</v>
+        <v>1.89374224893885</v>
       </c>
       <c r="E22">
-        <v>0.07487257948554671</v>
+        <v>0.08680541776490713</v>
       </c>
       <c r="F22">
-        <v>22.72559012178937</v>
+        <v>30.63617448370439</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0003514680334529771</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,16 +1259,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.1563062776768156</v>
+        <v>25.63940401846469</v>
       </c>
       <c r="L22">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.1879628788409597</v>
+      </c>
+      <c r="M22">
+        <v>15.60111534525683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2994594061855764</v>
+        <v>0.3875892934738374</v>
       </c>
       <c r="D23">
-        <v>1.321669277844904</v>
+        <v>1.89374224893885</v>
       </c>
       <c r="E23">
-        <v>0.07487257948554671</v>
+        <v>0.08680541776490713</v>
       </c>
       <c r="F23">
-        <v>22.72559012178937</v>
+        <v>30.63617448370439</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0003514680334529771</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,16 +1300,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.1563062776768156</v>
+        <v>25.63940401846469</v>
       </c>
       <c r="L23">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.1879628788409597</v>
+      </c>
+      <c r="M23">
+        <v>15.60111534525683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2994594061855764</v>
+        <v>0.3875892934738374</v>
       </c>
       <c r="D24">
-        <v>1.321669277844904</v>
+        <v>1.89374224893885</v>
       </c>
       <c r="E24">
-        <v>0.07487257948554671</v>
+        <v>0.08680541776490713</v>
       </c>
       <c r="F24">
-        <v>22.72559012178937</v>
+        <v>30.63617448370439</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0003514680334529771</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,16 +1341,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.1563062776768156</v>
+        <v>25.63940401846469</v>
       </c>
       <c r="L24">
-        <v>12.69816895171635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.1879628788409597</v>
+      </c>
+      <c r="M24">
+        <v>15.60111534525683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2994594061855764</v>
+        <v>0.3875892934738374</v>
       </c>
       <c r="D25">
-        <v>1.321669277844904</v>
+        <v>1.89374224893885</v>
       </c>
       <c r="E25">
-        <v>0.07487257948554671</v>
+        <v>0.08680541776490713</v>
       </c>
       <c r="F25">
-        <v>22.72559012178937</v>
+        <v>30.63617448370439</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0003514680334529771</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20.95155361946456</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1563062776768156</v>
+        <v>25.63940401846469</v>
       </c>
       <c r="L25">
-        <v>12.69816895171635</v>
+        <v>0.1879628788409597</v>
+      </c>
+      <c r="M25">
+        <v>15.60111534525683</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1120144306851216</v>
+        <v>0.1839010233976239</v>
       </c>
       <c r="D2">
-        <v>0.3789350165664445</v>
+        <v>0.4591113326580967</v>
       </c>
       <c r="E2">
-        <v>0.04187893502810347</v>
+        <v>0.3677523022374061</v>
       </c>
       <c r="F2">
-        <v>7.68138415867179</v>
+        <v>8.698745288318321</v>
       </c>
       <c r="G2">
-        <v>0.000660963841428486</v>
+        <v>0.0006250702462985797</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,16 +448,22 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.88743839404242</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07343120101766942</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.327018831802349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>6.796797852632892</v>
+      </c>
+      <c r="N2">
+        <v>2.676693535317867</v>
+      </c>
+      <c r="O2">
+        <v>7.669950580346097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09329170893018102</v>
+        <v>0.1532485516926698</v>
       </c>
       <c r="D3">
-        <v>0.3089309331498953</v>
+        <v>0.3781194595668467</v>
       </c>
       <c r="E3">
-        <v>0.0373994322367821</v>
+        <v>0.3198531710890506</v>
       </c>
       <c r="F3">
-        <v>6.348275013491985</v>
+        <v>7.233389004810874</v>
       </c>
       <c r="G3">
-        <v>0.0006906423090664352</v>
+        <v>0.0006505652143438459</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,16 +495,22 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.474697264531642</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06306541542373978</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.475790331726671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5.752058315287996</v>
+      </c>
+      <c r="N3">
+        <v>2.411205696765506</v>
+      </c>
+      <c r="O3">
+        <v>6.373163841870564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0828523189481416</v>
+        <v>0.1357720250352372</v>
       </c>
       <c r="D4">
-        <v>0.2721087984276664</v>
+        <v>0.3328927674052551</v>
       </c>
       <c r="E4">
-        <v>0.03471320310817738</v>
+        <v>0.290990886850409</v>
       </c>
       <c r="F4">
-        <v>5.620772951322522</v>
+        <v>6.406086315450153</v>
       </c>
       <c r="G4">
-        <v>0.0007083425819989685</v>
+        <v>0.0006658834356999511</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,16 +542,22 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.661897883471141</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05698191100005801</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.987586609182628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.143022623404136</v>
+      </c>
+      <c r="N4">
+        <v>2.249568134345253</v>
+      </c>
+      <c r="O4">
+        <v>5.641664533483663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07879974256347566</v>
+        <v>0.1289078229124243</v>
       </c>
       <c r="D5">
-        <v>0.2582787025227731</v>
+        <v>0.3153272258184359</v>
       </c>
       <c r="E5">
-        <v>0.03362950273583998</v>
+        <v>0.2793219555505146</v>
       </c>
       <c r="F5">
-        <v>5.341702828973098</v>
+        <v>6.082930606785709</v>
       </c>
       <c r="G5">
-        <v>0.0007154832042145469</v>
+        <v>0.0006720840234186633</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,16 +589,22 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.340950369585926</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05455393497591743</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3.795139694180634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4.901014987504595</v>
+      </c>
+      <c r="N5">
+        <v>2.184009604286217</v>
+      </c>
+      <c r="O5">
+        <v>5.35605912686276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07813748320496927</v>
+        <v>0.1277816616654661</v>
       </c>
       <c r="D6">
-        <v>0.256044489117528</v>
+        <v>0.3124563221504104</v>
       </c>
       <c r="E6">
-        <v>0.03345009871494753</v>
+        <v>0.2773889072940179</v>
       </c>
       <c r="F6">
-        <v>5.296285149639232</v>
+        <v>6.030013484043593</v>
       </c>
       <c r="G6">
-        <v>0.0007166659129792764</v>
+        <v>0.0006731121309038918</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,16 +636,22 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.288196389772764</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05415340091100873</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.76352568924419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4.861155579251005</v>
+      </c>
+      <c r="N6">
+        <v>2.173141417122196</v>
+      </c>
+      <c r="O6">
+        <v>5.309297898538119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08279691859547711</v>
+        <v>0.1356784984642303</v>
       </c>
       <c r="D7">
-        <v>0.2719179293882945</v>
+        <v>0.3326526683593727</v>
       </c>
       <c r="E7">
-        <v>0.03469854911130987</v>
+        <v>0.2908331884913835</v>
       </c>
       <c r="F7">
-        <v>5.616944898528089</v>
+        <v>6.401676255221389</v>
       </c>
       <c r="G7">
-        <v>0.000708439111339302</v>
+        <v>0.0006659671802990985</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,16 +683,22 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.657531668642548</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05694898088651001</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3.98496725854362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5.139736010234472</v>
+      </c>
+      <c r="N7">
+        <v>2.248682777922198</v>
+      </c>
+      <c r="O7">
+        <v>5.637766426238557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1052935574759886</v>
+        <v>0.1729962394149709</v>
       </c>
       <c r="D8">
-        <v>0.3532489156052065</v>
+        <v>0.4300612005131228</v>
       </c>
       <c r="E8">
-        <v>0.04031727377981653</v>
+        <v>0.3510899118530588</v>
       </c>
       <c r="F8">
-        <v>7.198877729926437</v>
+        <v>8.175463610675621</v>
       </c>
       <c r="G8">
-        <v>0.0006713477681822284</v>
+        <v>0.0006339607947896291</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,16 +730,22 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.386503937092471</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.069784584863541</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>5.024812997694539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>6.428442909394363</v>
+      </c>
+      <c r="N8">
+        <v>2.584846291439277</v>
+      </c>
+      <c r="O8">
+        <v>7.20670380492038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1626570361775066</v>
+        <v>0.262590860375866</v>
       </c>
       <c r="D9">
-        <v>0.5905460092227486</v>
+        <v>0.6761042406746469</v>
       </c>
       <c r="E9">
-        <v>0.05226752617435437</v>
+        <v>0.4771889066934136</v>
       </c>
       <c r="F9">
-        <v>11.44393820305459</v>
+        <v>12.53127504742091</v>
       </c>
       <c r="G9">
-        <v>0.0005899817035635794</v>
+        <v>0.0005654772605806696</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,16 +777,22 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.4723476956342</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.09870113548965875</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>7.500831868285189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9.353832081841261</v>
+      </c>
+      <c r="N9">
+        <v>3.256636758832684</v>
+      </c>
+      <c r="O9">
+        <v>11.06808951404381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.229544331937916</v>
+        <v>0.3551264441443607</v>
       </c>
       <c r="D10">
-        <v>0.9144523940128693</v>
+        <v>0.9472797715294803</v>
       </c>
       <c r="E10">
-        <v>0.06326016510533705</v>
+        <v>0.58667809493992</v>
       </c>
       <c r="F10">
-        <v>16.71941656291557</v>
+        <v>17.14517856515425</v>
       </c>
       <c r="G10">
-        <v>0.0005094984472588937</v>
+        <v>0.0005027857620778927</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,16 +824,22 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.79076737984147</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1276120367966591</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.14260748260671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12.15207611838431</v>
+      </c>
+      <c r="N10">
+        <v>3.759472825366629</v>
+      </c>
+      <c r="O10">
+        <v>15.17135102327993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2872136196654509</v>
+        <v>0.4160474695555934</v>
       </c>
       <c r="D11">
-        <v>1.233580079966089</v>
+        <v>1.135432083894358</v>
       </c>
       <c r="E11">
-        <v>0.07135817211898576</v>
+        <v>0.6510717462463802</v>
       </c>
       <c r="F11">
-        <v>21.5379450084551</v>
+        <v>20.23615815485846</v>
       </c>
       <c r="G11">
-        <v>0.0004479084544171517</v>
+        <v>0.0004646180647790387</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,16 +871,22 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.20957705652481</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.149942002965787</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>12.24868910620975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13.8794788051809</v>
+      </c>
+      <c r="N11">
+        <v>3.988920022513526</v>
+      </c>
+      <c r="O11">
+        <v>17.92813538083763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2872136196654509</v>
+        <v>0.4467980474845348</v>
       </c>
       <c r="D12">
-        <v>1.233580079966089</v>
+        <v>1.233493315499828</v>
       </c>
       <c r="E12">
-        <v>0.07135817211898576</v>
+        <v>0.6821914450964357</v>
       </c>
       <c r="F12">
-        <v>21.5379450084551</v>
+        <v>21.81102859417922</v>
       </c>
       <c r="G12">
-        <v>0.0004479084544171517</v>
+        <v>0.0004461073297680009</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,16 +918,22 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.20957705652481</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.149942002965787</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12.24868910620975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.71775864417157</v>
+      </c>
+      <c r="N12">
+        <v>4.074864913240305</v>
+      </c>
+      <c r="O12">
+        <v>19.33537230596761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.346878355533633</v>
+        <v>0.4395754629817787</v>
       </c>
       <c r="D13">
-        <v>1.607273074943549</v>
+        <v>1.21026660884084</v>
       </c>
       <c r="E13">
-        <v>0.07980757541658079</v>
+        <v>0.6749368391952189</v>
       </c>
       <c r="F13">
-        <v>26.81770757395526</v>
+        <v>21.44027050460875</v>
       </c>
       <c r="G13">
-        <v>0.0003893557642829151</v>
+        <v>0.000450413404746566</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,16 +965,22 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.50441703157924</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1721296666695871</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.28468933178033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.52288352877477</v>
+      </c>
+      <c r="N13">
+        <v>4.056461443980197</v>
+      </c>
+      <c r="O13">
+        <v>19.00391022110145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3960920008524766</v>
+        <v>0.4183449667381751</v>
       </c>
       <c r="D14">
-        <v>1.957587538147379</v>
+        <v>1.142684743129934</v>
       </c>
       <c r="E14">
-        <v>0.08853393598906045</v>
+        <v>0.6534207745692271</v>
       </c>
       <c r="F14">
-        <v>31.46165164643588</v>
+        <v>20.35349081797682</v>
       </c>
       <c r="G14">
-        <v>0.0003436937744062603</v>
+        <v>0.0004632186849431341</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,16 +1012,22 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.07634569883948</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1914791859194303</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.86948159748391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13.94288648327054</v>
+      </c>
+      <c r="N14">
+        <v>3.996028785910454</v>
+      </c>
+      <c r="O14">
+        <v>18.03291515886227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4104592809882206</v>
+        <v>0.4066876093203575</v>
       </c>
       <c r="D15">
-        <v>2.069212163198074</v>
+        <v>1.106005845114112</v>
       </c>
       <c r="E15">
-        <v>0.09176707878279444</v>
+        <v>0.641453019890811</v>
       </c>
       <c r="F15">
-        <v>32.88288155051771</v>
+        <v>19.75871368044324</v>
       </c>
       <c r="G15">
-        <v>0.0003306242974504582</v>
+        <v>0.0004703474995236767</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,16 +1059,22 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.80932967367352</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1976836672263609</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>16.31831862007439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13.61986121629843</v>
+      </c>
+      <c r="N15">
+        <v>3.958806638273416</v>
+      </c>
+      <c r="O15">
+        <v>17.50187366211298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4621877286357119</v>
+        <v>0.3517554724158884</v>
       </c>
       <c r="D16">
-        <v>2.523315017434413</v>
+        <v>0.937096685898382</v>
       </c>
       <c r="E16">
-        <v>0.1089617529104441</v>
+        <v>0.5829698542780903</v>
       </c>
       <c r="F16">
-        <v>38.3751101830224</v>
+        <v>16.9753182358649</v>
       </c>
       <c r="G16">
-        <v>0.0002834605450443878</v>
+        <v>0.000504961932197864</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,16 +1106,22 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>29.42829861121791</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.224909455983525</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.89684394361717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12.05387906988568</v>
+      </c>
+      <c r="N16">
+        <v>3.744452373238829</v>
+      </c>
+      <c r="O16">
+        <v>15.02004542053788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4833400058815869</v>
+        <v>0.3243003023851259</v>
       </c>
       <c r="D17">
-        <v>2.745904645050928</v>
+        <v>0.8550253943994335</v>
       </c>
       <c r="E17">
-        <v>0.1208421674189939</v>
+        <v>0.5520651525244418</v>
       </c>
       <c r="F17">
-        <v>40.89217178880131</v>
+        <v>15.59669020610374</v>
       </c>
       <c r="G17">
-        <v>0.0002633731060020581</v>
+        <v>0.0005229645451496981</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,16 +1153,22 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.52465443264163</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2403951347675708</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>18.53576309183126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11.24373654962699</v>
+      </c>
+      <c r="N17">
+        <v>3.612923098237559</v>
+      </c>
+      <c r="O17">
+        <v>13.79271535873934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4934485325763944</v>
+        <v>0.3099127408151077</v>
       </c>
       <c r="D18">
-        <v>2.865469071602291</v>
+        <v>0.8126270185965723</v>
       </c>
       <c r="E18">
-        <v>0.1285143603228214</v>
+        <v>0.5353245024871924</v>
       </c>
       <c r="F18">
-        <v>42.19383896462949</v>
+        <v>14.87775675600972</v>
       </c>
       <c r="G18">
-        <v>0.0002533019091276977</v>
+        <v>0.0005326083613565835</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,16 +1200,22 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>31.06817238533887</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2495905880471447</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.84408632597032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>10.81174045586641</v>
+      </c>
+      <c r="N18">
+        <v>3.537411816951021</v>
+      </c>
+      <c r="O18">
+        <v>13.15317115069828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4965824324613806</v>
+        <v>0.3052343800073345</v>
       </c>
       <c r="D19">
-        <v>2.9049429051137</v>
+        <v>0.798930202218969</v>
       </c>
       <c r="E19">
-        <v>0.1312760901375345</v>
+        <v>0.5297933199185252</v>
       </c>
       <c r="F19">
-        <v>42.61554550060242</v>
+        <v>14.64452081100046</v>
       </c>
       <c r="G19">
-        <v>0.0002500811232346362</v>
+        <v>0.0005357772212459549</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,16 +1247,22 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>31.24096884661654</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2527853026682862</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.94059092269913</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10.67015274859878</v>
+      </c>
+      <c r="N19">
+        <v>3.511875192351511</v>
+      </c>
+      <c r="O19">
+        <v>12.94576180168391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4813195462513136</v>
+        <v>0.3270648367416413</v>
       </c>
       <c r="D20">
-        <v>2.723209688661882</v>
+        <v>0.8632199822414748</v>
       </c>
       <c r="E20">
-        <v>0.1194956910588125</v>
+        <v>0.5552369222574427</v>
       </c>
       <c r="F20">
-        <v>40.64104591919778</v>
+        <v>15.73511310964824</v>
       </c>
       <c r="G20">
-        <v>0.0002653397596122676</v>
+        <v>0.0005211285543600121</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,16 +1294,22 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.4179960665478</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2387253111155552</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>18.47450782481218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11.32615323953038</v>
+      </c>
+      <c r="N20">
+        <v>3.626911756550783</v>
+      </c>
+      <c r="O20">
+        <v>13.9158909715612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3875892934738374</v>
+        <v>0.4242643101497094</v>
       </c>
       <c r="D21">
-        <v>1.89374224893885</v>
+        <v>1.161424994392434</v>
       </c>
       <c r="E21">
-        <v>0.08680541776490713</v>
+        <v>0.6594527879839376</v>
       </c>
       <c r="F21">
-        <v>30.63617448370439</v>
+        <v>20.6560391375088</v>
       </c>
       <c r="G21">
-        <v>0.0003514680334529771</v>
+        <v>0.0004596257346075711</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,16 +1341,22 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.63940401846469</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1879628788409597</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.60111534525683</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.10567373141049</v>
+      </c>
+      <c r="N21">
+        <v>4.013831227028476</v>
+      </c>
+      <c r="O21">
+        <v>18.30314184682913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3875892934738374</v>
+        <v>0.4242643101497094</v>
       </c>
       <c r="D22">
-        <v>1.89374224893885</v>
+        <v>1.161424994392434</v>
       </c>
       <c r="E22">
-        <v>0.08680541776490713</v>
+        <v>0.6594527879839376</v>
       </c>
       <c r="F22">
-        <v>30.63617448370439</v>
+        <v>20.6560391375088</v>
       </c>
       <c r="G22">
-        <v>0.0003514680334529771</v>
+        <v>0.0004596257346075711</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,16 +1388,22 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.63940401846469</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1879628788409597</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.60111534525683</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14.10567373141049</v>
+      </c>
+      <c r="N22">
+        <v>4.013831227028476</v>
+      </c>
+      <c r="O22">
+        <v>18.30314184682913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3875892934738374</v>
+        <v>0.4242643101497094</v>
       </c>
       <c r="D23">
-        <v>1.89374224893885</v>
+        <v>1.161424994392434</v>
       </c>
       <c r="E23">
-        <v>0.08680541776490713</v>
+        <v>0.6594527879839376</v>
       </c>
       <c r="F23">
-        <v>30.63617448370439</v>
+        <v>20.6560391375088</v>
       </c>
       <c r="G23">
-        <v>0.0003514680334529771</v>
+        <v>0.0004596257346075711</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,16 +1435,22 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.63940401846469</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1879628788409597</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.60111534525683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14.10567373141049</v>
+      </c>
+      <c r="N23">
+        <v>4.013831227028476</v>
+      </c>
+      <c r="O23">
+        <v>18.30314184682913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3875892934738374</v>
+        <v>0.4242643101497094</v>
       </c>
       <c r="D24">
-        <v>1.89374224893885</v>
+        <v>1.161424994392434</v>
       </c>
       <c r="E24">
-        <v>0.08680541776490713</v>
+        <v>0.6594527879839376</v>
       </c>
       <c r="F24">
-        <v>30.63617448370439</v>
+        <v>20.6560391375088</v>
       </c>
       <c r="G24">
-        <v>0.0003514680334529771</v>
+        <v>0.0004596257346075711</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,16 +1482,22 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.63940401846469</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1879628788409597</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>15.60111534525683</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.10567373141049</v>
+      </c>
+      <c r="N24">
+        <v>4.013831227028476</v>
+      </c>
+      <c r="O24">
+        <v>18.30314184682913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3875892934738374</v>
+        <v>0.4242643101497094</v>
       </c>
       <c r="D25">
-        <v>1.89374224893885</v>
+        <v>1.161424994392434</v>
       </c>
       <c r="E25">
-        <v>0.08680541776490713</v>
+        <v>0.6594527879839376</v>
       </c>
       <c r="F25">
-        <v>30.63617448370439</v>
+        <v>20.6560391375088</v>
       </c>
       <c r="G25">
-        <v>0.0003514680334529771</v>
+        <v>0.0004596257346075711</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.63940401846469</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1879628788409597</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.60111534525683</v>
+        <v>14.10567373141049</v>
+      </c>
+      <c r="N25">
+        <v>4.013831227028476</v>
+      </c>
+      <c r="O25">
+        <v>18.30314184682913</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1839010233976239</v>
+        <v>0.02122998515869767</v>
       </c>
       <c r="D2">
-        <v>0.4591113326580967</v>
+        <v>0.002080976637776288</v>
       </c>
       <c r="E2">
-        <v>0.3677523022374061</v>
+        <v>0.02636711225835509</v>
       </c>
       <c r="F2">
-        <v>8.698745288318321</v>
+        <v>2.419778888310674</v>
       </c>
       <c r="G2">
-        <v>0.0006250702462985797</v>
+        <v>0.0008473723272558991</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.776839567462986</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07092116131363824</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.239269883397014</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05100747806084094</v>
       </c>
       <c r="M2">
-        <v>6.796797852632892</v>
+        <v>0.8029525451459989</v>
       </c>
       <c r="N2">
-        <v>2.676693535317867</v>
+        <v>1.292169041203589</v>
       </c>
       <c r="O2">
-        <v>7.669950580346097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1532485516926698</v>
+        <v>0.01913837988966449</v>
       </c>
       <c r="D3">
-        <v>0.3781194595668467</v>
+        <v>0.001757871569708414</v>
       </c>
       <c r="E3">
-        <v>0.3198531710890506</v>
+        <v>0.02577132604388854</v>
       </c>
       <c r="F3">
-        <v>7.233389004810874</v>
+        <v>2.311932517848774</v>
       </c>
       <c r="G3">
-        <v>0.0006505652143438459</v>
+        <v>0.0008557339705341345</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.697850584819875</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07112591766765419</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.731427046916224</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05123929555516682</v>
       </c>
       <c r="M3">
-        <v>5.752058315287996</v>
+        <v>0.7141402660114551</v>
       </c>
       <c r="N3">
-        <v>2.411205696765506</v>
+        <v>1.364599417570535</v>
       </c>
       <c r="O3">
-        <v>6.373163841870564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1357720250352372</v>
+        <v>0.01786658270320274</v>
       </c>
       <c r="D4">
-        <v>0.3328927674052551</v>
+        <v>0.001568863169767454</v>
       </c>
       <c r="E4">
-        <v>0.290990886850409</v>
+        <v>0.02542728853314902</v>
       </c>
       <c r="F4">
-        <v>6.406086315450153</v>
+        <v>2.250491691613774</v>
       </c>
       <c r="G4">
-        <v>0.0006658834356999511</v>
+        <v>0.0008610137513893085</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.652898813083866</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07133825619802536</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.424986474874686</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05142463395829111</v>
       </c>
       <c r="M4">
-        <v>5.143022623404136</v>
+        <v>0.6606313743548782</v>
       </c>
       <c r="N4">
-        <v>2.249568134345253</v>
+        <v>1.410836486652588</v>
       </c>
       <c r="O4">
-        <v>5.641664533483663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1289078229124243</v>
+        <v>0.01735112896815494</v>
       </c>
       <c r="D5">
-        <v>0.3153272258184359</v>
+        <v>0.001493820265439538</v>
       </c>
       <c r="E5">
-        <v>0.2793219555505146</v>
+        <v>0.02529236238575727</v>
       </c>
       <c r="F5">
-        <v>6.082930606785709</v>
+        <v>2.226571603087905</v>
       </c>
       <c r="G5">
-        <v>0.0006720840234186633</v>
+        <v>0.000863203363470484</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.635410263795691</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07144574611691112</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.30131079299565</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05151071973408961</v>
       </c>
       <c r="M5">
-        <v>4.901014987504595</v>
+        <v>0.6390569576049643</v>
       </c>
       <c r="N5">
-        <v>2.184009604286217</v>
+        <v>1.430109275442053</v>
       </c>
       <c r="O5">
-        <v>5.35605912686276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1277816616654661</v>
+        <v>0.01726569948473156</v>
       </c>
       <c r="D6">
-        <v>0.3124563221504104</v>
+        <v>0.001481468722763779</v>
       </c>
       <c r="E6">
-        <v>0.2773889072940179</v>
+        <v>0.02527027075655575</v>
       </c>
       <c r="F6">
-        <v>6.030013484043593</v>
+        <v>2.222664861737726</v>
       </c>
       <c r="G6">
-        <v>0.0006731121309038918</v>
+        <v>0.0008635692852009462</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.632554678417364</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07146483789539815</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.280842915476342</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05152564488261291</v>
       </c>
       <c r="M6">
-        <v>4.861155579251005</v>
+        <v>0.635487761607294</v>
       </c>
       <c r="N6">
-        <v>2.173141417122196</v>
+        <v>1.433335169992716</v>
       </c>
       <c r="O6">
-        <v>5.309297898538119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1356784984642303</v>
+        <v>0.01785962011932085</v>
       </c>
       <c r="D7">
-        <v>0.3326526683593727</v>
+        <v>0.001567843570189353</v>
       </c>
       <c r="E7">
-        <v>0.2908331884913835</v>
+        <v>0.02542544778386979</v>
       </c>
       <c r="F7">
-        <v>6.401676255221389</v>
+        <v>2.250164677990298</v>
       </c>
       <c r="G7">
-        <v>0.0006659671802990985</v>
+        <v>0.0008610431253376149</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.652659676144893</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07133962201512389</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.42331386782655</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05142575251009518</v>
       </c>
       <c r="M7">
-        <v>5.139736010234472</v>
+        <v>0.6603395124323015</v>
       </c>
       <c r="N7">
-        <v>2.248682777922198</v>
+        <v>1.411094678159373</v>
       </c>
       <c r="O7">
-        <v>5.637766426238557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1729962394149709</v>
+        <v>0.02050601229014148</v>
       </c>
       <c r="D8">
-        <v>0.4300612005131228</v>
+        <v>0.001967381496378096</v>
       </c>
       <c r="E8">
-        <v>0.3510899118530588</v>
+        <v>0.02615703675521974</v>
       </c>
       <c r="F8">
-        <v>8.175463610675621</v>
+        <v>2.381549418280599</v>
       </c>
       <c r="G8">
-        <v>0.0006339607947896291</v>
+        <v>0.000850226070956396</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.748828652861505</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07097326957997652</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.06295499626043</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05107832434726056</v>
       </c>
       <c r="M8">
-        <v>6.428442909394363</v>
+        <v>0.7721014894977216</v>
       </c>
       <c r="N8">
-        <v>2.584846291439277</v>
+        <v>1.316768719751419</v>
       </c>
       <c r="O8">
-        <v>7.20670380492038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.262590860375866</v>
+        <v>0.02581074687717688</v>
       </c>
       <c r="D9">
-        <v>0.6761042406746469</v>
+        <v>0.002844894249374619</v>
       </c>
       <c r="E9">
-        <v>0.4771889066934136</v>
+        <v>0.02777472079922383</v>
       </c>
       <c r="F9">
-        <v>12.53127504742091</v>
+        <v>2.681257918631204</v>
       </c>
       <c r="G9">
-        <v>0.0005654772605806696</v>
+        <v>0.0008300997347538391</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.968667142874281</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07098278879780295</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>5.367480684102702</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.05075083595363239</v>
       </c>
       <c r="M9">
-        <v>9.353832081841261</v>
+        <v>1.000682538459799</v>
       </c>
       <c r="N9">
-        <v>3.256636758832684</v>
+        <v>1.14643238553041</v>
       </c>
       <c r="O9">
-        <v>11.06808951404381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3551264441443607</v>
+        <v>0.02980437346754883</v>
       </c>
       <c r="D10">
-        <v>0.9472797715294803</v>
+        <v>0.003578680924396949</v>
       </c>
       <c r="E10">
-        <v>0.58667809493992</v>
+        <v>0.02909081858668117</v>
       </c>
       <c r="F10">
-        <v>17.14517856515425</v>
+        <v>2.933542033652145</v>
       </c>
       <c r="G10">
-        <v>0.0005027857620778927</v>
+        <v>0.0008158668604350854</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.154042393959628</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07149648080300963</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>6.368235390484813</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.05074546108023625</v>
       </c>
       <c r="M10">
-        <v>12.15207611838431</v>
+        <v>1.176392970028218</v>
       </c>
       <c r="N10">
-        <v>3.759472825366629</v>
+        <v>1.031190640105073</v>
       </c>
       <c r="O10">
-        <v>15.17135102327993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4160474695555934</v>
+        <v>0.03164883905002824</v>
       </c>
       <c r="D11">
-        <v>1.135432083894358</v>
+        <v>0.00394042375668846</v>
       </c>
       <c r="E11">
-        <v>0.6510717462463802</v>
+        <v>0.02972133049634351</v>
       </c>
       <c r="F11">
-        <v>20.23615815485846</v>
+        <v>3.056924069120981</v>
       </c>
       <c r="G11">
-        <v>0.0004646180647790387</v>
+        <v>0.0008094850309781661</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.244781959361163</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07185623256898666</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6.835685038753809</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.050799060759811</v>
       </c>
       <c r="M11">
-        <v>13.8794788051809</v>
+        <v>1.25853361449218</v>
       </c>
       <c r="N11">
-        <v>3.988920022513526</v>
+        <v>0.9811675596579619</v>
       </c>
       <c r="O11">
-        <v>17.92813538083763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4467980474845348</v>
+        <v>0.03235192538970466</v>
       </c>
       <c r="D12">
-        <v>1.233493315499828</v>
+        <v>0.004082283212939686</v>
       </c>
       <c r="E12">
-        <v>0.6821914450964357</v>
+        <v>0.02996504977339853</v>
       </c>
       <c r="F12">
-        <v>21.81102859417922</v>
+        <v>3.105041596027178</v>
       </c>
       <c r="G12">
-        <v>0.0004461073297680009</v>
+        <v>0.0008070791804346741</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.280181734408558</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07201212173164606</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>7.014734735055413</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05082788932604743</v>
       </c>
       <c r="M12">
-        <v>14.71775864417157</v>
+        <v>1.290004928515359</v>
       </c>
       <c r="N12">
-        <v>4.074864913240305</v>
+        <v>0.9625950450813932</v>
       </c>
       <c r="O12">
-        <v>19.33537230596761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4395754629817787</v>
+        <v>0.03220028629350224</v>
       </c>
       <c r="D13">
-        <v>1.21026660884084</v>
+        <v>0.004051499266735092</v>
       </c>
       <c r="E13">
-        <v>0.6749368391952189</v>
+        <v>0.02991233334107335</v>
       </c>
       <c r="F13">
-        <v>21.44027050460875</v>
+        <v>3.094613863838873</v>
       </c>
       <c r="G13">
-        <v>0.000450413404746566</v>
+        <v>0.0008075968862177874</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.272509548689442</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.07197764747706259</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>6.976077726322785</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.05082129300340199</v>
       </c>
       <c r="M13">
-        <v>14.52288352877477</v>
+        <v>1.283209878958715</v>
       </c>
       <c r="N13">
-        <v>4.056461443980197</v>
+        <v>0.9665780755102915</v>
       </c>
       <c r="O13">
-        <v>19.00391022110145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4183449667381751</v>
+        <v>0.03170658569179352</v>
       </c>
       <c r="D14">
-        <v>1.142684743129934</v>
+        <v>0.003951991506143671</v>
       </c>
       <c r="E14">
-        <v>0.6534207745692271</v>
+        <v>0.02974127969589802</v>
       </c>
       <c r="F14">
-        <v>20.35349081797682</v>
+        <v>3.060853795338602</v>
       </c>
       <c r="G14">
-        <v>0.0004632186849431341</v>
+        <v>0.0008092868992315025</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.247672783038425</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.07186865423126676</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6.850373005515735</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05080125861033125</v>
       </c>
       <c r="M14">
-        <v>13.94288648327054</v>
+        <v>1.261115133604733</v>
       </c>
       <c r="N14">
-        <v>3.996028785910454</v>
+        <v>0.9796320155495621</v>
       </c>
       <c r="O14">
-        <v>18.03291515886227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4066876093203575</v>
+        <v>0.03140480280126212</v>
       </c>
       <c r="D15">
-        <v>1.106005845114112</v>
+        <v>0.00389170283458995</v>
       </c>
       <c r="E15">
-        <v>0.641453019890811</v>
+        <v>0.02963716227090174</v>
       </c>
       <c r="F15">
-        <v>19.75871368044324</v>
+        <v>3.040361476479205</v>
       </c>
       <c r="G15">
-        <v>0.0004703474995236767</v>
+        <v>0.0008103234085148374</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.232598524451177</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07180450151934892</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6.773649439871747</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05079011300824732</v>
       </c>
       <c r="M15">
-        <v>13.61986121629843</v>
+        <v>1.247630734939023</v>
       </c>
       <c r="N15">
-        <v>3.958806638273416</v>
+        <v>0.9876769270363361</v>
       </c>
       <c r="O15">
-        <v>17.50187366211298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3517554724158884</v>
+        <v>0.02968444420305616</v>
       </c>
       <c r="D16">
-        <v>0.937096685898382</v>
+        <v>0.003555672657409303</v>
       </c>
       <c r="E16">
-        <v>0.5829698542780903</v>
+        <v>0.02905028503881724</v>
       </c>
       <c r="F16">
-        <v>16.9753182358649</v>
+        <v>2.925665050906332</v>
       </c>
       <c r="G16">
-        <v>0.000504961932197864</v>
+        <v>0.0008162855852698531</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.148251018035225</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07147563366298826</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6.337955313320549</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05074312509659507</v>
       </c>
       <c r="M16">
-        <v>12.05387906988568</v>
+        <v>1.171073373143074</v>
       </c>
       <c r="N16">
-        <v>3.744452373238829</v>
+        <v>1.034510135671944</v>
       </c>
       <c r="O16">
-        <v>15.02004542053788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3243003023851259</v>
+        <v>0.0286365938172537</v>
       </c>
       <c r="D17">
-        <v>0.8550253943994335</v>
+        <v>0.00335725381709473</v>
       </c>
       <c r="E17">
-        <v>0.5520651525244418</v>
+        <v>0.02869866145891464</v>
       </c>
       <c r="F17">
-        <v>15.59669020610374</v>
+        <v>2.857614818756034</v>
       </c>
       <c r="G17">
-        <v>0.0005229645451496981</v>
+        <v>0.000819965239509237</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.098227318959673</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07130720539521107</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6.073986222133556</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05072897285151967</v>
       </c>
       <c r="M17">
-        <v>11.24373654962699</v>
+        <v>1.124706586678712</v>
       </c>
       <c r="N17">
-        <v>3.612923098237559</v>
+        <v>1.063872474769276</v>
       </c>
       <c r="O17">
-        <v>13.79271535873934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3099127408151077</v>
+        <v>0.02803646663113568</v>
       </c>
       <c r="D18">
-        <v>0.8126270185965723</v>
+        <v>0.003245699631236221</v>
       </c>
       <c r="E18">
-        <v>0.5353245024871924</v>
+        <v>0.02849938568922106</v>
       </c>
       <c r="F18">
-        <v>14.87775675600972</v>
+        <v>2.819274754322507</v>
       </c>
       <c r="G18">
-        <v>0.0005326083613565835</v>
+        <v>0.0008220905798544317</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.070050706972779</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.07122209443420502</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5.923287824800582</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05072607667398898</v>
       </c>
       <c r="M18">
-        <v>10.81174045586641</v>
+        <v>1.098242319082566</v>
       </c>
       <c r="N18">
-        <v>3.537411816951021</v>
+        <v>1.08098524247605</v>
       </c>
       <c r="O18">
-        <v>13.15317115069828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3052343800073345</v>
+        <v>0.02783369696110327</v>
       </c>
       <c r="D19">
-        <v>0.798930202218969</v>
+        <v>0.003208346908447623</v>
       </c>
       <c r="E19">
-        <v>0.5297933199185252</v>
+        <v>0.02843241328646151</v>
       </c>
       <c r="F19">
-        <v>14.64452081100046</v>
+        <v>2.80642651803808</v>
       </c>
       <c r="G19">
-        <v>0.0005357772212459549</v>
+        <v>0.0008228117846257998</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.060609574252368</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.07119525422864115</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.872449910595378</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.05072598320847277</v>
       </c>
       <c r="M19">
-        <v>10.67015274859878</v>
+        <v>1.089315735905195</v>
       </c>
       <c r="N19">
-        <v>3.511875192351511</v>
+        <v>1.086817152056028</v>
       </c>
       <c r="O19">
-        <v>12.94576180168391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3270648367416413</v>
+        <v>0.0287478690821672</v>
       </c>
       <c r="D20">
-        <v>0.8632199822414748</v>
+        <v>0.003378103958798562</v>
       </c>
       <c r="E20">
-        <v>0.5552369222574427</v>
+        <v>0.02873578249624842</v>
       </c>
       <c r="F20">
-        <v>15.73511310964824</v>
+        <v>2.864774948027161</v>
       </c>
       <c r="G20">
-        <v>0.0005211285543600121</v>
+        <v>0.0008195726304233745</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.103489974607683</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.07132390678989609</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6.101967334613221</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.05072993342160004</v>
       </c>
       <c r="M20">
-        <v>11.32615323953038</v>
+        <v>1.12962089197174</v>
       </c>
       <c r="N20">
-        <v>3.626911756550783</v>
+        <v>1.060723416377403</v>
       </c>
       <c r="O20">
-        <v>13.9158909715612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4242643101497094</v>
+        <v>0.03185146643593839</v>
       </c>
       <c r="D21">
-        <v>1.161424994392434</v>
+        <v>0.003981079511500951</v>
       </c>
       <c r="E21">
-        <v>0.6594527879839376</v>
+        <v>0.02979138444628049</v>
       </c>
       <c r="F21">
-        <v>20.6560391375088</v>
+        <v>3.070730731110672</v>
       </c>
       <c r="G21">
-        <v>0.0004596257346075711</v>
+        <v>0.0008087902296255289</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.254938751146852</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0719001215171069</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6.88723783090245</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.05080690760663487</v>
       </c>
       <c r="M21">
-        <v>14.10567373141049</v>
+        <v>1.267594532191211</v>
       </c>
       <c r="N21">
-        <v>4.013831227028476</v>
+        <v>0.9757874971311224</v>
       </c>
       <c r="O21">
-        <v>18.30314184682913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4242643101497094</v>
+        <v>0.03390717807671706</v>
       </c>
       <c r="D22">
-        <v>1.161424994392434</v>
+        <v>0.004404078243231524</v>
       </c>
       <c r="E22">
-        <v>0.6594527879839376</v>
+        <v>0.03051039412382117</v>
       </c>
       <c r="F22">
-        <v>20.6560391375088</v>
+        <v>3.213555584721661</v>
       </c>
       <c r="G22">
-        <v>0.0004596257346075711</v>
+        <v>0.0008018049137088479</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.360038578784952</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07239215041718694</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>7.412486110350812</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.05090720475747901</v>
       </c>
       <c r="M22">
-        <v>14.10567373141049</v>
+        <v>1.359931316701619</v>
       </c>
       <c r="N22">
-        <v>4.013831227028476</v>
+        <v>0.9224483861638504</v>
       </c>
       <c r="O22">
-        <v>18.30314184682913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4242643101497094</v>
+        <v>0.03280727156295882</v>
       </c>
       <c r="D23">
-        <v>1.161424994392434</v>
+        <v>0.004175349061172895</v>
       </c>
       <c r="E23">
-        <v>0.6594527879839376</v>
+        <v>0.03012384196999207</v>
       </c>
       <c r="F23">
-        <v>20.6560391375088</v>
+        <v>3.136518151986365</v>
       </c>
       <c r="G23">
-        <v>0.0004596257346075711</v>
+        <v>0.0008055283888470093</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.303342415982613</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07211842631710752</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7.130947896609314</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.0508489288496321</v>
       </c>
       <c r="M23">
-        <v>14.10567373141049</v>
+        <v>1.310433778315314</v>
       </c>
       <c r="N23">
-        <v>4.013831227028476</v>
+        <v>0.9507087020815703</v>
       </c>
       <c r="O23">
-        <v>18.30314184682913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4242643101497094</v>
+        <v>0.02869755443050082</v>
       </c>
       <c r="D24">
-        <v>1.161424994392434</v>
+        <v>0.003368669825304593</v>
       </c>
       <c r="E24">
-        <v>0.6594527879839376</v>
+        <v>0.0287189911414103</v>
       </c>
       <c r="F24">
-        <v>20.6560391375088</v>
+        <v>2.861535426532669</v>
       </c>
       <c r="G24">
-        <v>0.0004596257346075711</v>
+        <v>0.0008197500980698628</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.101108921711869</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07131631969543406</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>6.089313789912751</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.05072948286091616</v>
       </c>
       <c r="M24">
-        <v>14.10567373141049</v>
+        <v>1.127398538203082</v>
       </c>
       <c r="N24">
-        <v>4.013831227028476</v>
+        <v>1.062146384991159</v>
       </c>
       <c r="O24">
-        <v>18.30314184682913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4242643101497094</v>
+        <v>0.02436084537649208</v>
       </c>
       <c r="D25">
-        <v>1.161424994392434</v>
+        <v>0.002594438535577837</v>
       </c>
       <c r="E25">
-        <v>0.6594527879839376</v>
+        <v>0.02731595005264786</v>
       </c>
       <c r="F25">
-        <v>20.6560391375088</v>
+        <v>2.595051839292722</v>
       </c>
       <c r="G25">
-        <v>0.0004596257346075711</v>
+        <v>0.0008354387050080603</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.905384014678489</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.07089619150565341</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>5.008064064261816</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05079965913326134</v>
       </c>
       <c r="M25">
-        <v>14.10567373141049</v>
+        <v>0.9376405191138133</v>
       </c>
       <c r="N25">
-        <v>4.013831227028476</v>
+        <v>1.190851431510431</v>
       </c>
       <c r="O25">
-        <v>18.30314184682913</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02122998515869767</v>
+        <v>0.04303700082435569</v>
       </c>
       <c r="D2">
-        <v>0.002080976637776288</v>
+        <v>0.00657243056490131</v>
       </c>
       <c r="E2">
-        <v>0.02636711225835509</v>
+        <v>0.07625242059650184</v>
       </c>
       <c r="F2">
-        <v>2.419778888310674</v>
+        <v>4.526727007203732</v>
       </c>
       <c r="G2">
-        <v>0.0008473723272558991</v>
+        <v>0.002660522252693241</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.776839567462986</v>
+        <v>3.30929981430674</v>
       </c>
       <c r="J2">
-        <v>0.07092116131363824</v>
+        <v>0.1938379813589499</v>
       </c>
       <c r="K2">
-        <v>4.239269883397014</v>
+        <v>3.820272871585871</v>
       </c>
       <c r="L2">
-        <v>0.05100747806084094</v>
+        <v>0.1514848428649334</v>
       </c>
       <c r="M2">
-        <v>0.8029525451459989</v>
+        <v>0.9034733304046227</v>
       </c>
       <c r="N2">
-        <v>1.292169041203589</v>
+        <v>2.767415841708409</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01913837988966449</v>
+        <v>0.04263092651696354</v>
       </c>
       <c r="D3">
-        <v>0.001757871569708414</v>
+        <v>0.00642035348718295</v>
       </c>
       <c r="E3">
-        <v>0.02577132604388854</v>
+        <v>0.07640180804637442</v>
       </c>
       <c r="F3">
-        <v>2.311932517848774</v>
+        <v>4.529732580597994</v>
       </c>
       <c r="G3">
-        <v>0.0008557339705341345</v>
+        <v>0.002665878844378701</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.697850584819875</v>
+        <v>3.31158005640826</v>
       </c>
       <c r="J3">
-        <v>0.07112591766765419</v>
+        <v>0.1948076583685889</v>
       </c>
       <c r="K3">
-        <v>3.731427046916224</v>
+        <v>3.710516053391189</v>
       </c>
       <c r="L3">
-        <v>0.05123929555516682</v>
+        <v>0.1521213566546837</v>
       </c>
       <c r="M3">
-        <v>0.7141402660114551</v>
+        <v>0.885862602215731</v>
       </c>
       <c r="N3">
-        <v>1.364599417570535</v>
+        <v>2.795691530960433</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01786658270320274</v>
+        <v>0.04239254619906063</v>
       </c>
       <c r="D4">
-        <v>0.001568863169767454</v>
+        <v>0.006326336082277173</v>
       </c>
       <c r="E4">
-        <v>0.02542728853314902</v>
+        <v>0.07651133967862922</v>
       </c>
       <c r="F4">
-        <v>2.250491691613774</v>
+        <v>4.533729371605602</v>
       </c>
       <c r="G4">
-        <v>0.0008610137513893085</v>
+        <v>0.002669341828307644</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.652898813083866</v>
+        <v>3.314564695323241</v>
       </c>
       <c r="J4">
-        <v>0.07133825619802536</v>
+        <v>0.1954594255830067</v>
       </c>
       <c r="K4">
-        <v>3.424986474874686</v>
+        <v>3.645129515267058</v>
       </c>
       <c r="L4">
-        <v>0.05142463395829111</v>
+        <v>0.1525458374172608</v>
       </c>
       <c r="M4">
-        <v>0.6606313743548782</v>
+        <v>0.8754917820256125</v>
       </c>
       <c r="N4">
-        <v>1.410836486652588</v>
+        <v>2.813898689983297</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01735112896815494</v>
+        <v>0.04229817552991477</v>
       </c>
       <c r="D5">
-        <v>0.001493820265439538</v>
+        <v>0.006287858807517921</v>
       </c>
       <c r="E5">
-        <v>0.02529236238575727</v>
+        <v>0.07656046474325784</v>
       </c>
       <c r="F5">
-        <v>2.226571603087905</v>
+        <v>4.535898411650905</v>
       </c>
       <c r="G5">
-        <v>0.000863203363470484</v>
+        <v>0.0026707969269183</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.635410263795691</v>
+        <v>3.316178893397009</v>
       </c>
       <c r="J5">
-        <v>0.07144574611691112</v>
+        <v>0.1957392175896402</v>
       </c>
       <c r="K5">
-        <v>3.30131079299565</v>
+        <v>3.618987733156644</v>
       </c>
       <c r="L5">
-        <v>0.05151071973408961</v>
+        <v>0.1527272975737191</v>
       </c>
       <c r="M5">
-        <v>0.6390569576049643</v>
+        <v>0.8713768206866632</v>
       </c>
       <c r="N5">
-        <v>1.430109275442053</v>
+        <v>2.821530800279199</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01726569948473156</v>
+        <v>0.04228267324837631</v>
       </c>
       <c r="D6">
-        <v>0.001481468722763779</v>
+        <v>0.006281459668129763</v>
       </c>
       <c r="E6">
-        <v>0.02527027075655575</v>
+        <v>0.07656889347309637</v>
       </c>
       <c r="F6">
-        <v>2.222664861737726</v>
+        <v>4.536291193818755</v>
       </c>
       <c r="G6">
-        <v>0.0008635692852009462</v>
+        <v>0.002671041200859259</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.632554678417364</v>
+        <v>3.316470949080824</v>
       </c>
       <c r="J6">
-        <v>0.07146483789539815</v>
+        <v>0.1957865343910292</v>
       </c>
       <c r="K6">
-        <v>3.280842915476342</v>
+        <v>3.614677328075913</v>
       </c>
       <c r="L6">
-        <v>0.05152564488261291</v>
+        <v>0.1527579416170735</v>
       </c>
       <c r="M6">
-        <v>0.635487761607294</v>
+        <v>0.8707002536143236</v>
       </c>
       <c r="N6">
-        <v>1.433335169992716</v>
+        <v>2.822810939851291</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01785962011932085</v>
+        <v>0.04239126223870215</v>
       </c>
       <c r="D7">
-        <v>0.001567843570189353</v>
+        <v>0.00632581783295727</v>
       </c>
       <c r="E7">
-        <v>0.02542544778386979</v>
+        <v>0.07651198399999082</v>
       </c>
       <c r="F7">
-        <v>2.250164677990298</v>
+        <v>4.533756437221257</v>
       </c>
       <c r="G7">
-        <v>0.0008610431253376149</v>
+        <v>0.002669361274238667</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.652659676144893</v>
+        <v>3.314584854447716</v>
       </c>
       <c r="J7">
-        <v>0.07133962201512389</v>
+        <v>0.1954631414761252</v>
       </c>
       <c r="K7">
-        <v>3.42331386782655</v>
+        <v>3.644774918735607</v>
       </c>
       <c r="L7">
-        <v>0.05142575251009518</v>
+        <v>0.1525482502916464</v>
       </c>
       <c r="M7">
-        <v>0.6603395124323015</v>
+        <v>0.8754358358057246</v>
       </c>
       <c r="N7">
-        <v>1.411094678159373</v>
+        <v>2.814000758896665</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02050601229014148</v>
+        <v>0.04289472379623405</v>
       </c>
       <c r="D8">
-        <v>0.001967381496378096</v>
+        <v>0.006520125533471699</v>
       </c>
       <c r="E8">
-        <v>0.02615703675521974</v>
+        <v>0.07630024080163977</v>
       </c>
       <c r="F8">
-        <v>2.381549418280599</v>
+        <v>4.527316402587871</v>
       </c>
       <c r="G8">
-        <v>0.000850226070956396</v>
+        <v>0.002662333177758626</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.748828652861505</v>
+        <v>3.309756844210469</v>
       </c>
       <c r="J8">
-        <v>0.07097326957997652</v>
+        <v>0.1941606322652234</v>
       </c>
       <c r="K8">
-        <v>4.06295499626043</v>
+        <v>3.782012428595124</v>
       </c>
       <c r="L8">
-        <v>0.05107832434726056</v>
+        <v>0.1516973371379731</v>
       </c>
       <c r="M8">
-        <v>0.7721014894977216</v>
+        <v>0.8973093718093494</v>
       </c>
       <c r="N8">
-        <v>1.316768719751419</v>
+        <v>2.776989682811795</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02581074687717688</v>
+        <v>0.04396821620876779</v>
       </c>
       <c r="D9">
-        <v>0.002844894249374619</v>
+        <v>0.00689624182719939</v>
       </c>
       <c r="E9">
-        <v>0.02777472079922383</v>
+        <v>0.07602579280679933</v>
       </c>
       <c r="F9">
-        <v>2.681257918631204</v>
+        <v>4.531792753397227</v>
       </c>
       <c r="G9">
-        <v>0.0008300997347538391</v>
+        <v>0.002649925099024808</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.968667142874281</v>
+        <v>3.312889178343767</v>
       </c>
       <c r="J9">
-        <v>0.07098278879780295</v>
+        <v>0.1920531955043181</v>
       </c>
       <c r="K9">
-        <v>5.367480684102702</v>
+        <v>4.067074535722327</v>
       </c>
       <c r="L9">
-        <v>0.05075083595363239</v>
+        <v>0.1502950240336869</v>
       </c>
       <c r="M9">
-        <v>1.000682538459799</v>
+        <v>0.9437146946457062</v>
       </c>
       <c r="N9">
-        <v>1.14643238553041</v>
+        <v>2.711126641780147</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02980437346754883</v>
+        <v>0.04480866988191679</v>
       </c>
       <c r="D10">
-        <v>0.003578680924396949</v>
+        <v>0.007169850486642204</v>
       </c>
       <c r="E10">
-        <v>0.02909081858668117</v>
+        <v>0.07590933219838547</v>
       </c>
       <c r="F10">
-        <v>2.933542033652145</v>
+        <v>4.545565869748714</v>
       </c>
       <c r="G10">
-        <v>0.0008158668604350854</v>
+        <v>0.002641637078006582</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.154042393959628</v>
+        <v>3.322915295883377</v>
       </c>
       <c r="J10">
-        <v>0.07149648080300963</v>
+        <v>0.1907764930118283</v>
       </c>
       <c r="K10">
-        <v>6.368235390484813</v>
+        <v>4.286303782241419</v>
       </c>
       <c r="L10">
-        <v>0.05074546108023625</v>
+        <v>0.1494261162264223</v>
       </c>
       <c r="M10">
-        <v>1.176392970028218</v>
+        <v>0.9799579934529277</v>
       </c>
       <c r="N10">
-        <v>1.031190640105073</v>
+        <v>2.666835977108285</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03164883905002824</v>
+        <v>0.04520209646938866</v>
       </c>
       <c r="D11">
-        <v>0.00394042375668846</v>
+        <v>0.007293796900704308</v>
       </c>
       <c r="E11">
-        <v>0.02972133049634351</v>
+        <v>0.07587471431308224</v>
       </c>
       <c r="F11">
-        <v>3.056924069120981</v>
+        <v>4.554121212791983</v>
       </c>
       <c r="G11">
-        <v>0.0008094850309781661</v>
+        <v>0.002638044464068759</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.244781959361163</v>
+        <v>3.329163784529072</v>
       </c>
       <c r="J11">
-        <v>0.07185623256898666</v>
+        <v>0.190254524022432</v>
       </c>
       <c r="K11">
-        <v>6.835685038753809</v>
+        <v>4.388182499378104</v>
       </c>
       <c r="L11">
-        <v>0.050799060759811</v>
+        <v>0.149065662739357</v>
       </c>
       <c r="M11">
-        <v>1.25853361449218</v>
+        <v>0.9969150249518037</v>
       </c>
       <c r="N11">
-        <v>0.9811675596579619</v>
+        <v>2.647578172179522</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03235192538970466</v>
+        <v>0.04535265804949518</v>
       </c>
       <c r="D12">
-        <v>0.004082283212939686</v>
+        <v>0.007340662713883006</v>
       </c>
       <c r="E12">
-        <v>0.02996504977339853</v>
+        <v>0.07586423440251444</v>
       </c>
       <c r="F12">
-        <v>3.105041596027178</v>
+        <v>4.557691152312742</v>
       </c>
       <c r="G12">
-        <v>0.0008070791804346741</v>
+        <v>0.002636709426928313</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.280181734408558</v>
+        <v>3.331773341583968</v>
       </c>
       <c r="J12">
-        <v>0.07201212173164606</v>
+        <v>0.1900653135023447</v>
       </c>
       <c r="K12">
-        <v>7.014734735055413</v>
+        <v>4.427071532639047</v>
       </c>
       <c r="L12">
-        <v>0.05082788932604743</v>
+        <v>0.1489341588546083</v>
       </c>
       <c r="M12">
-        <v>1.290004928515359</v>
+        <v>1.00340386025195</v>
       </c>
       <c r="N12">
-        <v>0.9625950450813932</v>
+        <v>2.640413926715429</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03220028629350224</v>
+        <v>0.04532016193458333</v>
       </c>
       <c r="D13">
-        <v>0.004051499266735092</v>
+        <v>0.007330572357801657</v>
       </c>
       <c r="E13">
-        <v>0.02991233334107335</v>
+        <v>0.07586637468289581</v>
       </c>
       <c r="F13">
-        <v>3.094613863838873</v>
+        <v>4.556907600361399</v>
       </c>
       <c r="G13">
-        <v>0.0008075968862177874</v>
+        <v>0.00263699582337825</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.272509548689442</v>
+        <v>3.331200490278633</v>
       </c>
       <c r="J13">
-        <v>0.07197764747706259</v>
+        <v>0.1901056877928937</v>
       </c>
       <c r="K13">
-        <v>6.976077726322785</v>
+        <v>4.4186822966509</v>
       </c>
       <c r="L13">
-        <v>0.05082129300340199</v>
+        <v>0.148962258777825</v>
       </c>
       <c r="M13">
-        <v>1.283209878958715</v>
+        <v>1.002003367588202</v>
       </c>
       <c r="N13">
-        <v>0.9665780755102915</v>
+        <v>2.641951166333556</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03170658569179352</v>
+        <v>0.0452144517007298</v>
       </c>
       <c r="D14">
-        <v>0.003951991506143671</v>
+        <v>0.007297653954884353</v>
       </c>
       <c r="E14">
-        <v>0.02974127969589802</v>
+        <v>0.07587379949597128</v>
       </c>
       <c r="F14">
-        <v>3.060853795338602</v>
+        <v>4.554408290400659</v>
       </c>
       <c r="G14">
-        <v>0.0008092868992315025</v>
+        <v>0.00263793412140754</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.247672783038425</v>
+        <v>3.329373592271764</v>
       </c>
       <c r="J14">
-        <v>0.07186865423126676</v>
+        <v>0.1902387883021781</v>
       </c>
       <c r="K14">
-        <v>6.850373005515735</v>
+        <v>4.391375711785372</v>
       </c>
       <c r="L14">
-        <v>0.05080125861033125</v>
+        <v>0.1490547438707353</v>
       </c>
       <c r="M14">
-        <v>1.261115133604733</v>
+        <v>0.9974475108667633</v>
       </c>
       <c r="N14">
-        <v>0.9796320155495621</v>
+        <v>2.646986193254648</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03140480280126212</v>
+        <v>0.04514990633324345</v>
       </c>
       <c r="D15">
-        <v>0.00389170283458995</v>
+        <v>0.007277481510060468</v>
       </c>
       <c r="E15">
-        <v>0.02963716227090174</v>
+        <v>0.07587868947179466</v>
       </c>
       <c r="F15">
-        <v>3.040361476479205</v>
+        <v>4.552920422956049</v>
       </c>
       <c r="G15">
-        <v>0.0008103234085148374</v>
+        <v>0.002638512160917099</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.232598524451177</v>
+        <v>3.328286282738517</v>
       </c>
       <c r="J15">
-        <v>0.07180450151934892</v>
+        <v>0.1903214161032061</v>
       </c>
       <c r="K15">
-        <v>6.773649439871747</v>
+        <v>4.374689999544728</v>
       </c>
       <c r="L15">
-        <v>0.05079011300824732</v>
+        <v>0.1491120433394393</v>
       </c>
       <c r="M15">
-        <v>1.247630734939023</v>
+        <v>0.9946657182037058</v>
       </c>
       <c r="N15">
-        <v>0.9876769270363361</v>
+        <v>2.6500870044297</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02968444420305616</v>
+        <v>0.04478318045597973</v>
       </c>
       <c r="D16">
-        <v>0.003555672657409303</v>
+        <v>0.007161740238137426</v>
       </c>
       <c r="E16">
-        <v>0.02905028503881724</v>
+        <v>0.07591196306871595</v>
       </c>
       <c r="F16">
-        <v>2.925665050906332</v>
+        <v>4.54505291563899</v>
       </c>
       <c r="G16">
-        <v>0.0008162855852698531</v>
+        <v>0.002641875426494512</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.148251018035225</v>
+        <v>3.322540961713685</v>
       </c>
       <c r="J16">
-        <v>0.07147563366298826</v>
+        <v>0.1908117875377258</v>
       </c>
       <c r="K16">
-        <v>6.337955313320549</v>
+        <v>4.279689084732354</v>
       </c>
       <c r="L16">
-        <v>0.05074312509659507</v>
+        <v>0.149450372062752</v>
       </c>
       <c r="M16">
-        <v>1.171073373143074</v>
+        <v>0.9788592663665838</v>
       </c>
       <c r="N16">
-        <v>1.034510135671944</v>
+        <v>2.668112455200475</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0286365938172537</v>
+        <v>0.04456103701695469</v>
       </c>
       <c r="D17">
-        <v>0.00335725381709473</v>
+        <v>0.007090606907183883</v>
       </c>
       <c r="E17">
-        <v>0.02869866145891464</v>
+        <v>0.07593706999351824</v>
       </c>
       <c r="F17">
-        <v>2.857614818756034</v>
+        <v>4.540813606653444</v>
       </c>
       <c r="G17">
-        <v>0.000819965239509237</v>
+        <v>0.002643984082598525</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.098227318959673</v>
+        <v>3.319449125370085</v>
       </c>
       <c r="J17">
-        <v>0.07130720539521107</v>
+        <v>0.1911276705638976</v>
       </c>
       <c r="K17">
-        <v>6.073986222133556</v>
+        <v>4.221960221751544</v>
       </c>
       <c r="L17">
-        <v>0.05072897285151967</v>
+        <v>0.1496668327894106</v>
       </c>
       <c r="M17">
-        <v>1.124706586678712</v>
+        <v>0.9692828540274263</v>
       </c>
       <c r="N17">
-        <v>1.063872474769276</v>
+        <v>2.679398673865784</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02803646663113568</v>
+        <v>0.04443431175102575</v>
       </c>
       <c r="D18">
-        <v>0.003245699631236221</v>
+        <v>0.007049643696541708</v>
       </c>
       <c r="E18">
-        <v>0.02849938568922106</v>
+        <v>0.0759532396775171</v>
       </c>
       <c r="F18">
-        <v>2.819274754322507</v>
+        <v>4.538590745767266</v>
       </c>
       <c r="G18">
-        <v>0.0008220905798544317</v>
+        <v>0.002645213655329335</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.070050706972779</v>
+        <v>3.317829579702845</v>
       </c>
       <c r="J18">
-        <v>0.07122209443420502</v>
+        <v>0.1913148940534803</v>
       </c>
       <c r="K18">
-        <v>5.923287824800582</v>
+        <v>4.188958459998048</v>
       </c>
       <c r="L18">
-        <v>0.05072607667398898</v>
+        <v>0.1497946132812302</v>
       </c>
       <c r="M18">
-        <v>1.098242319082566</v>
+        <v>0.9638189703839544</v>
       </c>
       <c r="N18">
-        <v>1.08098524247605</v>
+        <v>2.685973986443891</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02783369696110327</v>
+        <v>0.04439158487870998</v>
       </c>
       <c r="D19">
-        <v>0.003208346908447623</v>
+        <v>0.007035765668909733</v>
       </c>
       <c r="E19">
-        <v>0.02843241328646151</v>
+        <v>0.0759590117258675</v>
       </c>
       <c r="F19">
-        <v>2.80642651803808</v>
+        <v>4.537875103591858</v>
       </c>
       <c r="G19">
-        <v>0.0008228117846257998</v>
+        <v>0.002645632844835974</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.060609574252368</v>
+        <v>3.317308481139008</v>
       </c>
       <c r="J19">
-        <v>0.07119525422864115</v>
+        <v>0.1913792357883999</v>
       </c>
       <c r="K19">
-        <v>5.872449910595378</v>
+        <v>4.177819368089274</v>
       </c>
       <c r="L19">
-        <v>0.05072598320847277</v>
+        <v>0.1498384410092441</v>
       </c>
       <c r="M19">
-        <v>1.089315735905195</v>
+        <v>0.9619765867392047</v>
       </c>
       <c r="N19">
-        <v>1.086817152056028</v>
+        <v>2.688214655721779</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0287478690821672</v>
+        <v>0.04458457645353064</v>
       </c>
       <c r="D20">
-        <v>0.003378103958798562</v>
+        <v>0.007098184230075688</v>
       </c>
       <c r="E20">
-        <v>0.02873578249624842</v>
+        <v>0.07593421847062309</v>
       </c>
       <c r="F20">
-        <v>2.864774948027161</v>
+        <v>4.541242580607189</v>
       </c>
       <c r="G20">
-        <v>0.0008195726304233745</v>
+        <v>0.00264375788221932</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.103489974607683</v>
+        <v>3.319761816643279</v>
       </c>
       <c r="J20">
-        <v>0.07132390678989609</v>
+        <v>0.1910934713961367</v>
       </c>
       <c r="K20">
-        <v>6.101967334613221</v>
+        <v>4.228084610980773</v>
       </c>
       <c r="L20">
-        <v>0.05072993342160004</v>
+        <v>0.1496434510214542</v>
       </c>
       <c r="M20">
-        <v>1.12962089197174</v>
+        <v>0.9702977032070237</v>
       </c>
       <c r="N20">
-        <v>1.060723416377403</v>
+        <v>2.67818856415504</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03185146643593839</v>
+        <v>0.04524545862485496</v>
       </c>
       <c r="D21">
-        <v>0.003981079511500951</v>
+        <v>0.007307324747864996</v>
       </c>
       <c r="E21">
-        <v>0.02979138444628049</v>
+        <v>0.07587154738233615</v>
       </c>
       <c r="F21">
-        <v>3.070730731110672</v>
+        <v>4.55513342877444</v>
       </c>
       <c r="G21">
-        <v>0.0008087902296255289</v>
+        <v>0.002637657832013824</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.254938751146852</v>
+        <v>3.329903585135085</v>
       </c>
       <c r="J21">
-        <v>0.0719001215171069</v>
+        <v>0.190199464254075</v>
       </c>
       <c r="K21">
-        <v>6.88723783090245</v>
+        <v>4.399387905726428</v>
       </c>
       <c r="L21">
-        <v>0.05080690760663487</v>
+        <v>0.1490274433909988</v>
       </c>
       <c r="M21">
-        <v>1.267594532191211</v>
+        <v>0.9987838422232471</v>
       </c>
       <c r="N21">
-        <v>0.9757874971311224</v>
+        <v>2.645503800609642</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03390717807671706</v>
+        <v>0.0456865821359429</v>
       </c>
       <c r="D22">
-        <v>0.004404078243231524</v>
+        <v>0.007443604518240221</v>
       </c>
       <c r="E22">
-        <v>0.03051039412382117</v>
+        <v>0.07584590774060196</v>
       </c>
       <c r="F22">
-        <v>3.213555584721661</v>
+        <v>4.566137106515839</v>
       </c>
       <c r="G22">
-        <v>0.0008018049137088479</v>
+        <v>0.002633819127673452</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.360038578784952</v>
+        <v>3.337950826826003</v>
       </c>
       <c r="J22">
-        <v>0.07239215041718694</v>
+        <v>0.1896644153309808</v>
       </c>
       <c r="K22">
-        <v>7.412486110350812</v>
+        <v>4.51315040785812</v>
       </c>
       <c r="L22">
-        <v>0.05090720475747901</v>
+        <v>0.1486539375063671</v>
       </c>
       <c r="M22">
-        <v>1.359931316701619</v>
+        <v>1.017795078445445</v>
       </c>
       <c r="N22">
-        <v>0.9224483861638504</v>
+        <v>2.624890181043668</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03280727156295882</v>
+        <v>0.04545030996882815</v>
       </c>
       <c r="D23">
-        <v>0.004175349061172895</v>
+        <v>0.007370904927595845</v>
       </c>
       <c r="E23">
-        <v>0.03012384196999207</v>
+        <v>0.07585819399293925</v>
       </c>
       <c r="F23">
-        <v>3.136518151986365</v>
+        <v>4.560087765707209</v>
       </c>
       <c r="G23">
-        <v>0.0008055283888470093</v>
+        <v>0.002635854417065952</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.303342415982613</v>
+        <v>3.333525780389635</v>
       </c>
       <c r="J23">
-        <v>0.07211842631710752</v>
+        <v>0.189945478719487</v>
       </c>
       <c r="K23">
-        <v>7.130947896609314</v>
+        <v>4.452267779643705</v>
       </c>
       <c r="L23">
-        <v>0.0508489288496321</v>
+        <v>0.1488506276034478</v>
       </c>
       <c r="M23">
-        <v>1.310433778315314</v>
+        <v>1.007612372728033</v>
       </c>
       <c r="N23">
-        <v>0.9507087020815703</v>
+        <v>2.635823552019364</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02869755443050082</v>
+        <v>0.04457393119687225</v>
       </c>
       <c r="D24">
-        <v>0.003368669825304593</v>
+        <v>0.007094758734416118</v>
       </c>
       <c r="E24">
-        <v>0.0287189911414103</v>
+        <v>0.07593550223799639</v>
       </c>
       <c r="F24">
-        <v>2.861535426532669</v>
+        <v>4.541047973785453</v>
       </c>
       <c r="G24">
-        <v>0.0008197500980698628</v>
+        <v>0.002643860093417577</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.101108921711869</v>
+        <v>3.31961995683362</v>
       </c>
       <c r="J24">
-        <v>0.07131631969543406</v>
+        <v>0.1911089153393668</v>
       </c>
       <c r="K24">
-        <v>6.089313789912751</v>
+        <v>4.225315191139714</v>
       </c>
       <c r="L24">
-        <v>0.05072948286091616</v>
+        <v>0.1496540115317728</v>
       </c>
       <c r="M24">
-        <v>1.127398538203082</v>
+        <v>0.9698387599310792</v>
       </c>
       <c r="N24">
-        <v>1.062146384991159</v>
+        <v>2.678735384651731</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02436084537649208</v>
+        <v>0.04366866230719779</v>
       </c>
       <c r="D25">
-        <v>0.002594438535577837</v>
+        <v>0.006794991725449506</v>
       </c>
       <c r="E25">
-        <v>0.02731595005264786</v>
+        <v>0.07608503420182267</v>
       </c>
       <c r="F25">
-        <v>2.595051839292722</v>
+        <v>4.528744781275591</v>
       </c>
       <c r="G25">
-        <v>0.0008354387050080603</v>
+        <v>0.00265313569491802</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.905384014678489</v>
+        <v>3.310688440994312</v>
       </c>
       <c r="J25">
-        <v>0.07089619150565341</v>
+        <v>0.1925755597268513</v>
       </c>
       <c r="K25">
-        <v>5.008064064261816</v>
+        <v>3.988243426539157</v>
       </c>
       <c r="L25">
-        <v>0.05079965913326134</v>
+        <v>0.150645977718094</v>
       </c>
       <c r="M25">
-        <v>0.9376405191138133</v>
+        <v>0.9307840377236687</v>
       </c>
       <c r="N25">
-        <v>1.190851431510431</v>
+        <v>2.728224913747951</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04303700082435569</v>
+        <v>0.02122998515870478</v>
       </c>
       <c r="D2">
-        <v>0.00657243056490131</v>
+        <v>0.00208097663778517</v>
       </c>
       <c r="E2">
-        <v>0.07625242059650184</v>
+        <v>0.02636711225833199</v>
       </c>
       <c r="F2">
-        <v>4.526727007203732</v>
+        <v>2.419778888310688</v>
       </c>
       <c r="G2">
-        <v>0.002660522252693241</v>
+        <v>0.000847372327256674</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.30929981430674</v>
+        <v>1.776839567463028</v>
       </c>
       <c r="J2">
-        <v>0.1938379813589499</v>
+        <v>0.07092116131376258</v>
       </c>
       <c r="K2">
-        <v>3.820272871585871</v>
+        <v>4.239269883397014</v>
       </c>
       <c r="L2">
-        <v>0.1514848428649334</v>
+        <v>0.05100747806068462</v>
       </c>
       <c r="M2">
-        <v>0.9034733304046227</v>
+        <v>0.8029525451459847</v>
       </c>
       <c r="N2">
-        <v>2.767415841708409</v>
+        <v>1.292169041203554</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04263092651696354</v>
+        <v>0.01913837988966804</v>
       </c>
       <c r="D3">
-        <v>0.00642035348718295</v>
+        <v>0.001757871569711966</v>
       </c>
       <c r="E3">
-        <v>0.07640180804637442</v>
+        <v>0.02577132604388765</v>
       </c>
       <c r="F3">
-        <v>4.529732580597994</v>
+        <v>2.31193251784876</v>
       </c>
       <c r="G3">
-        <v>0.002665878844378701</v>
+        <v>0.0008557339705344204</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.31158005640826</v>
+        <v>1.697850584819847</v>
       </c>
       <c r="J3">
-        <v>0.1948076583685889</v>
+        <v>0.07112591766754406</v>
       </c>
       <c r="K3">
-        <v>3.710516053391189</v>
+        <v>3.731427046916167</v>
       </c>
       <c r="L3">
-        <v>0.1521213566546837</v>
+        <v>0.05123929555521656</v>
       </c>
       <c r="M3">
-        <v>0.885862602215731</v>
+        <v>0.7141402660114551</v>
       </c>
       <c r="N3">
-        <v>2.795691530960433</v>
+        <v>1.364599417570485</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04239254619906063</v>
+        <v>0.01786658270357222</v>
       </c>
       <c r="D4">
-        <v>0.006326336082277173</v>
+        <v>0.001568863169774559</v>
       </c>
       <c r="E4">
-        <v>0.07651133967862922</v>
+        <v>0.02542728853311971</v>
       </c>
       <c r="F4">
-        <v>4.533729371605602</v>
+        <v>2.25049169161376</v>
       </c>
       <c r="G4">
-        <v>0.002669341828307644</v>
+        <v>0.0008610137513904787</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.314564695323241</v>
+        <v>1.652898813083851</v>
       </c>
       <c r="J4">
-        <v>0.1954594255830067</v>
+        <v>0.07133825619798273</v>
       </c>
       <c r="K4">
-        <v>3.645129515267058</v>
+        <v>3.424986474874743</v>
       </c>
       <c r="L4">
-        <v>0.1525458374172608</v>
+        <v>0.05142463395825025</v>
       </c>
       <c r="M4">
-        <v>0.8754917820256125</v>
+        <v>0.6606313743548995</v>
       </c>
       <c r="N4">
-        <v>2.813898689983297</v>
+        <v>1.410836486652606</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04229817552991477</v>
+        <v>0.01735112896815139</v>
       </c>
       <c r="D5">
-        <v>0.006287858807517921</v>
+        <v>0.001493820265531909</v>
       </c>
       <c r="E5">
-        <v>0.07656046474325784</v>
+        <v>0.02529236238577415</v>
       </c>
       <c r="F5">
-        <v>4.535898411650905</v>
+        <v>2.226571603087891</v>
       </c>
       <c r="G5">
-        <v>0.0026707969269183</v>
+        <v>0.0008632033634409558</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.316178893397009</v>
+        <v>1.635410263795663</v>
       </c>
       <c r="J5">
-        <v>0.1957392175896402</v>
+        <v>0.07144574611691823</v>
       </c>
       <c r="K5">
-        <v>3.618987733156644</v>
+        <v>3.30131079299565</v>
       </c>
       <c r="L5">
-        <v>0.1527272975737191</v>
+        <v>0.05151071973409671</v>
       </c>
       <c r="M5">
-        <v>0.8713768206866632</v>
+        <v>0.6390569576049643</v>
       </c>
       <c r="N5">
-        <v>2.821530800279199</v>
+        <v>1.430109275442124</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04228267324837631</v>
+        <v>0.0172656994848488</v>
       </c>
       <c r="D6">
-        <v>0.006281459668129763</v>
+        <v>0.001481468722886348</v>
       </c>
       <c r="E6">
-        <v>0.07656889347309637</v>
+        <v>0.02527027075656729</v>
       </c>
       <c r="F6">
-        <v>4.536291193818755</v>
+        <v>2.22266486173767</v>
       </c>
       <c r="G6">
-        <v>0.002671041200859259</v>
+        <v>0.0008635692852312456</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.316470949080824</v>
+        <v>1.632554678417335</v>
       </c>
       <c r="J6">
-        <v>0.1957865343910292</v>
+        <v>0.07146483789535196</v>
       </c>
       <c r="K6">
-        <v>3.614677328075913</v>
+        <v>3.280842915476342</v>
       </c>
       <c r="L6">
-        <v>0.1527579416170735</v>
+        <v>0.05152564488261469</v>
       </c>
       <c r="M6">
-        <v>0.8707002536143236</v>
+        <v>0.6354877616072869</v>
       </c>
       <c r="N6">
-        <v>2.822810939851291</v>
+        <v>1.433335169992684</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04239126223870215</v>
+        <v>0.0178596201193244</v>
       </c>
       <c r="D7">
-        <v>0.00632581783295727</v>
+        <v>0.001567843570219551</v>
       </c>
       <c r="E7">
-        <v>0.07651198399999082</v>
+        <v>0.02542544778387068</v>
       </c>
       <c r="F7">
-        <v>4.533756437221257</v>
+        <v>2.250164677990313</v>
       </c>
       <c r="G7">
-        <v>0.002669361274238667</v>
+        <v>0.0008610431253678835</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.314584854447716</v>
+        <v>1.652659676144907</v>
       </c>
       <c r="J7">
-        <v>0.1954631414761252</v>
+        <v>0.071339622015131</v>
       </c>
       <c r="K7">
-        <v>3.644774918735607</v>
+        <v>3.423313867826607</v>
       </c>
       <c r="L7">
-        <v>0.1525482502916464</v>
+        <v>0.05142575251009696</v>
       </c>
       <c r="M7">
-        <v>0.8754358358057246</v>
+        <v>0.6603395124323157</v>
       </c>
       <c r="N7">
-        <v>2.814000758896665</v>
+        <v>1.411094678159444</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04289472379623405</v>
+        <v>0.02050601229034754</v>
       </c>
       <c r="D8">
-        <v>0.006520125533471699</v>
+        <v>0.001967381496374543</v>
       </c>
       <c r="E8">
-        <v>0.07630024080163977</v>
+        <v>0.02615703675521797</v>
       </c>
       <c r="F8">
-        <v>4.527316402587871</v>
+        <v>2.381549418280599</v>
       </c>
       <c r="G8">
-        <v>0.002662333177758626</v>
+        <v>0.0008502260710047943</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.309756844210469</v>
+        <v>1.748828652861505</v>
       </c>
       <c r="J8">
-        <v>0.1941606322652234</v>
+        <v>0.07097326957996941</v>
       </c>
       <c r="K8">
-        <v>3.782012428595124</v>
+        <v>4.062954996260373</v>
       </c>
       <c r="L8">
-        <v>0.1516973371379731</v>
+        <v>0.05107832434730497</v>
       </c>
       <c r="M8">
-        <v>0.8973093718093494</v>
+        <v>0.7721014894977003</v>
       </c>
       <c r="N8">
-        <v>2.776989682811795</v>
+        <v>1.31676871975143</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04396821620876779</v>
+        <v>0.02581074687742557</v>
       </c>
       <c r="D9">
-        <v>0.00689624182719939</v>
+        <v>0.002844894249376395</v>
       </c>
       <c r="E9">
-        <v>0.07602579280679933</v>
+        <v>0.02777472079927001</v>
       </c>
       <c r="F9">
-        <v>4.531792753397227</v>
+        <v>2.681257918631204</v>
       </c>
       <c r="G9">
-        <v>0.002649925099024808</v>
+        <v>0.0008300997348136907</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.312889178343767</v>
+        <v>1.968667142874253</v>
       </c>
       <c r="J9">
-        <v>0.1920531955043181</v>
+        <v>0.07098278879780651</v>
       </c>
       <c r="K9">
-        <v>4.067074535722327</v>
+        <v>5.367480684102645</v>
       </c>
       <c r="L9">
-        <v>0.1502950240336869</v>
+        <v>0.05075083595364127</v>
       </c>
       <c r="M9">
-        <v>0.9437146946457062</v>
+        <v>1.000682538459799</v>
       </c>
       <c r="N9">
-        <v>2.711126641780147</v>
+        <v>1.146432385530439</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04480866988191679</v>
+        <v>0.02980437346778331</v>
       </c>
       <c r="D10">
-        <v>0.007169850486642204</v>
+        <v>0.003578680924633204</v>
       </c>
       <c r="E10">
-        <v>0.07590933219838547</v>
+        <v>0.02909081858665274</v>
       </c>
       <c r="F10">
-        <v>4.545565869748714</v>
+        <v>2.933542033652145</v>
       </c>
       <c r="G10">
-        <v>0.002641637078006582</v>
+        <v>0.0008158668604348083</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.322915295883377</v>
+        <v>2.154042393959614</v>
       </c>
       <c r="J10">
-        <v>0.1907764930118283</v>
+        <v>0.07149648080307358</v>
       </c>
       <c r="K10">
-        <v>4.286303782241419</v>
+        <v>6.36823539048487</v>
       </c>
       <c r="L10">
-        <v>0.1494261162264223</v>
+        <v>0.05074546108023981</v>
       </c>
       <c r="M10">
-        <v>0.9799579934529277</v>
+        <v>1.176392970028203</v>
       </c>
       <c r="N10">
-        <v>2.666835977108285</v>
+        <v>1.031190640105059</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04520209646938866</v>
+        <v>0.03164883904980087</v>
       </c>
       <c r="D11">
-        <v>0.007293796900704308</v>
+        <v>0.003940423756802147</v>
       </c>
       <c r="E11">
-        <v>0.07587471431308224</v>
+        <v>0.02972133049630976</v>
       </c>
       <c r="F11">
-        <v>4.554121212791983</v>
+        <v>3.056924069120953</v>
       </c>
       <c r="G11">
-        <v>0.002638044464068759</v>
+        <v>0.0008094850309765812</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.329163784529072</v>
+        <v>2.244781959361163</v>
       </c>
       <c r="J11">
-        <v>0.190254524022432</v>
+        <v>0.07185623256896179</v>
       </c>
       <c r="K11">
-        <v>4.388182499378104</v>
+        <v>6.835685038753866</v>
       </c>
       <c r="L11">
-        <v>0.149065662739357</v>
+        <v>0.05079906075979324</v>
       </c>
       <c r="M11">
-        <v>0.9969150249518037</v>
+        <v>1.25853361449218</v>
       </c>
       <c r="N11">
-        <v>2.647578172179522</v>
+        <v>0.9811675596580081</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04535265804949518</v>
+        <v>0.03235192538993203</v>
       </c>
       <c r="D12">
-        <v>0.007340662713883006</v>
+        <v>0.004082283213179494</v>
       </c>
       <c r="E12">
-        <v>0.07586423440251444</v>
+        <v>0.02996504977339853</v>
       </c>
       <c r="F12">
-        <v>4.557691152312742</v>
+        <v>3.105041596027149</v>
       </c>
       <c r="G12">
-        <v>0.002636709426928313</v>
+        <v>0.0008070791804355041</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.331773341583968</v>
+        <v>2.280181734408515</v>
       </c>
       <c r="J12">
-        <v>0.1900653135023447</v>
+        <v>0.07201212173158567</v>
       </c>
       <c r="K12">
-        <v>4.427071532639047</v>
+        <v>7.014734735055526</v>
       </c>
       <c r="L12">
-        <v>0.1489341588546083</v>
+        <v>0.05082788932617532</v>
       </c>
       <c r="M12">
-        <v>1.00340386025195</v>
+        <v>1.290004928515373</v>
       </c>
       <c r="N12">
-        <v>2.640413926715429</v>
+        <v>0.9625950450813257</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04532016193458333</v>
+        <v>0.03220028629375093</v>
       </c>
       <c r="D13">
-        <v>0.007330572357801657</v>
+        <v>0.00405149926673154</v>
       </c>
       <c r="E13">
-        <v>0.07586637468289581</v>
+        <v>0.02991233334107157</v>
       </c>
       <c r="F13">
-        <v>4.556907600361399</v>
+        <v>3.094613863838873</v>
       </c>
       <c r="G13">
-        <v>0.00263699582337825</v>
+        <v>0.0008075968862170367</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.331200490278633</v>
+        <v>2.272509548689428</v>
       </c>
       <c r="J13">
-        <v>0.1901056877928937</v>
+        <v>0.07197764747706259</v>
       </c>
       <c r="K13">
-        <v>4.4186822966509</v>
+        <v>6.976077726322842</v>
       </c>
       <c r="L13">
-        <v>0.148962258777825</v>
+        <v>0.05082129300333449</v>
       </c>
       <c r="M13">
-        <v>1.002003367588202</v>
+        <v>1.283209878958715</v>
       </c>
       <c r="N13">
-        <v>2.641951166333556</v>
+        <v>0.9665780755103413</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0452144517007298</v>
+        <v>0.03170658569130325</v>
       </c>
       <c r="D14">
-        <v>0.007297653954884353</v>
+        <v>0.003951991506363939</v>
       </c>
       <c r="E14">
-        <v>0.07587379949597128</v>
+        <v>0.02974127969589624</v>
       </c>
       <c r="F14">
-        <v>4.554408290400659</v>
+        <v>3.06085379533863</v>
       </c>
       <c r="G14">
-        <v>0.00263793412140754</v>
+        <v>0.0008092868991705513</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.329373592271764</v>
+        <v>2.247672783038453</v>
       </c>
       <c r="J14">
-        <v>0.1902387883021781</v>
+        <v>0.07186865423130584</v>
       </c>
       <c r="K14">
-        <v>4.391375711785372</v>
+        <v>6.850373005515792</v>
       </c>
       <c r="L14">
-        <v>0.1490547438707353</v>
+        <v>0.05080125861035967</v>
       </c>
       <c r="M14">
-        <v>0.9974475108667633</v>
+        <v>1.261115133604719</v>
       </c>
       <c r="N14">
-        <v>2.646986193254648</v>
+        <v>0.9796320155494982</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04514990633324345</v>
+        <v>0.03140480280055158</v>
       </c>
       <c r="D15">
-        <v>0.007277481510060468</v>
+        <v>0.003891702834696531</v>
       </c>
       <c r="E15">
-        <v>0.07587868947179466</v>
+        <v>0.02963716227083424</v>
       </c>
       <c r="F15">
-        <v>4.552920422956049</v>
+        <v>3.040361476479262</v>
       </c>
       <c r="G15">
-        <v>0.002638512160917099</v>
+        <v>0.0008103234084548629</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.328286282738517</v>
+        <v>2.232598524451191</v>
       </c>
       <c r="J15">
-        <v>0.1903214161032061</v>
+        <v>0.07180450151938444</v>
       </c>
       <c r="K15">
-        <v>4.374689999544728</v>
+        <v>6.773649439871804</v>
       </c>
       <c r="L15">
-        <v>0.1491120433394393</v>
+        <v>0.0507901130082935</v>
       </c>
       <c r="M15">
-        <v>0.9946657182037058</v>
+        <v>1.247630734939037</v>
       </c>
       <c r="N15">
-        <v>2.6500870044297</v>
+        <v>0.9876769270363077</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04478318045597973</v>
+        <v>0.02968444420351091</v>
       </c>
       <c r="D16">
-        <v>0.007161740238137426</v>
+        <v>0.003555672657510556</v>
       </c>
       <c r="E16">
-        <v>0.07591196306871595</v>
+        <v>0.02905028503872487</v>
       </c>
       <c r="F16">
-        <v>4.54505291563899</v>
+        <v>2.925665050906332</v>
       </c>
       <c r="G16">
-        <v>0.002641875426494512</v>
+        <v>0.0008162855852667196</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.322540961713685</v>
+        <v>2.148251018035239</v>
       </c>
       <c r="J16">
-        <v>0.1908117875377258</v>
+        <v>0.07147563366295628</v>
       </c>
       <c r="K16">
-        <v>4.279689084732354</v>
+        <v>6.337955313320549</v>
       </c>
       <c r="L16">
-        <v>0.149450372062752</v>
+        <v>0.05074312509668744</v>
       </c>
       <c r="M16">
-        <v>0.9788592663665838</v>
+        <v>1.171073373143074</v>
       </c>
       <c r="N16">
-        <v>2.668112455200475</v>
+        <v>1.034510135671916</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04456103701695469</v>
+        <v>0.0286365938172608</v>
       </c>
       <c r="D17">
-        <v>0.007090606907183883</v>
+        <v>0.003357253817101835</v>
       </c>
       <c r="E17">
-        <v>0.07593706999351824</v>
+        <v>0.02869866145897504</v>
       </c>
       <c r="F17">
-        <v>4.540813606653444</v>
+        <v>2.85761481875609</v>
       </c>
       <c r="G17">
-        <v>0.002643984082598525</v>
+        <v>0.0008199652395681116</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.319449125370085</v>
+        <v>2.098227318959687</v>
       </c>
       <c r="J17">
-        <v>0.1911276705638976</v>
+        <v>0.07130720539528212</v>
       </c>
       <c r="K17">
-        <v>4.221960221751544</v>
+        <v>6.073986222133556</v>
       </c>
       <c r="L17">
-        <v>0.1496668327894106</v>
+        <v>0.05072897285147704</v>
       </c>
       <c r="M17">
-        <v>0.9692828540274263</v>
+        <v>1.124706586678712</v>
       </c>
       <c r="N17">
-        <v>2.679398673865784</v>
+        <v>1.063872474769358</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04443431175102575</v>
+        <v>0.02803646663183912</v>
       </c>
       <c r="D18">
-        <v>0.007049643696541708</v>
+        <v>0.003245699631007071</v>
       </c>
       <c r="E18">
-        <v>0.0759532396775171</v>
+        <v>0.02849938568925481</v>
       </c>
       <c r="F18">
-        <v>4.538590745767266</v>
+        <v>2.819274754322507</v>
       </c>
       <c r="G18">
-        <v>0.002645213655329335</v>
+        <v>0.0008220905797963528</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.317829579702845</v>
+        <v>2.070050706972793</v>
       </c>
       <c r="J18">
-        <v>0.1913148940534803</v>
+        <v>0.07122209443409133</v>
       </c>
       <c r="K18">
-        <v>4.188958459998048</v>
+        <v>5.923287824800468</v>
       </c>
       <c r="L18">
-        <v>0.1497946132812302</v>
+        <v>0.05072607667393925</v>
       </c>
       <c r="M18">
-        <v>0.9638189703839544</v>
+        <v>1.098242319082566</v>
       </c>
       <c r="N18">
-        <v>2.685973986443891</v>
+        <v>1.080985242476</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04439158487870998</v>
+        <v>0.02783369696110327</v>
       </c>
       <c r="D19">
-        <v>0.007035765668909733</v>
+        <v>0.0032083469084494</v>
       </c>
       <c r="E19">
-        <v>0.0759590117258675</v>
+        <v>0.02843241328642776</v>
       </c>
       <c r="F19">
-        <v>4.537875103591858</v>
+        <v>2.80642651803808</v>
       </c>
       <c r="G19">
-        <v>0.002645632844835974</v>
+        <v>0.0008228117846251276</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.317308481139008</v>
+        <v>2.060609574252354</v>
       </c>
       <c r="J19">
-        <v>0.1913792357883999</v>
+        <v>0.07119525422863049</v>
       </c>
       <c r="K19">
-        <v>4.177819368089274</v>
+        <v>5.872449910595321</v>
       </c>
       <c r="L19">
-        <v>0.1498384410092441</v>
+        <v>0.05072598320846566</v>
       </c>
       <c r="M19">
-        <v>0.9619765867392047</v>
+        <v>1.089315735905188</v>
       </c>
       <c r="N19">
-        <v>2.688214655721779</v>
+        <v>1.086817152056085</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04458457645353064</v>
+        <v>0.02874786908239457</v>
       </c>
       <c r="D20">
-        <v>0.007098184230075688</v>
+        <v>0.003378103958684875</v>
       </c>
       <c r="E20">
-        <v>0.07593421847062309</v>
+        <v>0.02873578249621644</v>
       </c>
       <c r="F20">
-        <v>4.541242580607189</v>
+        <v>2.864774948027161</v>
       </c>
       <c r="G20">
-        <v>0.00264375788221932</v>
+        <v>0.0008195726303070911</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.319761816643279</v>
+        <v>2.103489974607641</v>
       </c>
       <c r="J20">
-        <v>0.1910934713961367</v>
+        <v>0.07132390678984635</v>
       </c>
       <c r="K20">
-        <v>4.228084610980773</v>
+        <v>6.101967334613278</v>
       </c>
       <c r="L20">
-        <v>0.1496434510214542</v>
+        <v>0.05072993342160004</v>
       </c>
       <c r="M20">
-        <v>0.9702977032070237</v>
+        <v>1.12962089197174</v>
       </c>
       <c r="N20">
-        <v>2.67818856415504</v>
+        <v>1.0607234163774</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04524545862485496</v>
+        <v>0.03185146643571102</v>
       </c>
       <c r="D21">
-        <v>0.007307324747864996</v>
+        <v>0.003981079511612862</v>
       </c>
       <c r="E21">
-        <v>0.07587154738233615</v>
+        <v>0.02979138444627871</v>
       </c>
       <c r="F21">
-        <v>4.55513342877444</v>
+        <v>3.070730731110672</v>
       </c>
       <c r="G21">
-        <v>0.002637657832013824</v>
+        <v>0.0008087902296251016</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.329903585135085</v>
+        <v>2.254938751146852</v>
       </c>
       <c r="J21">
-        <v>0.190199464254075</v>
+        <v>0.07190012151710334</v>
       </c>
       <c r="K21">
-        <v>4.399387905726428</v>
+        <v>6.887237830902393</v>
       </c>
       <c r="L21">
-        <v>0.1490274433909988</v>
+        <v>0.05080690760668816</v>
       </c>
       <c r="M21">
-        <v>0.9987838422232471</v>
+        <v>1.267594532191211</v>
       </c>
       <c r="N21">
-        <v>2.645503800609642</v>
+        <v>0.9757874971311189</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0456865821359429</v>
+        <v>0.03390717807671706</v>
       </c>
       <c r="D22">
-        <v>0.007443604518240221</v>
+        <v>0.004404078243450016</v>
       </c>
       <c r="E22">
-        <v>0.07584590774060196</v>
+        <v>0.03051039412378564</v>
       </c>
       <c r="F22">
-        <v>4.566137106515839</v>
+        <v>3.213555584721632</v>
       </c>
       <c r="G22">
-        <v>0.002633819127673452</v>
+        <v>0.0008018049135826916</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.337950826826003</v>
+        <v>2.360038578784952</v>
       </c>
       <c r="J22">
-        <v>0.1896644153309808</v>
+        <v>0.07239215041727221</v>
       </c>
       <c r="K22">
-        <v>4.51315040785812</v>
+        <v>7.412486110350869</v>
       </c>
       <c r="L22">
-        <v>0.1486539375063671</v>
+        <v>0.05090720475751098</v>
       </c>
       <c r="M22">
-        <v>1.017795078445445</v>
+        <v>1.359931316701619</v>
       </c>
       <c r="N22">
-        <v>2.624890181043668</v>
+        <v>0.9224483861637651</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04545030996882815</v>
+        <v>0.03280727156271723</v>
       </c>
       <c r="D23">
-        <v>0.007370904927595845</v>
+        <v>0.004175349061052103</v>
       </c>
       <c r="E23">
-        <v>0.07585819399293925</v>
+        <v>0.03012384196999562</v>
       </c>
       <c r="F23">
-        <v>4.560087765707209</v>
+        <v>3.136518151986422</v>
       </c>
       <c r="G23">
-        <v>0.002635854417065952</v>
+        <v>0.0008055283888473191</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.333525780389635</v>
+        <v>2.303342415982613</v>
       </c>
       <c r="J23">
-        <v>0.189945478719487</v>
+        <v>0.07211842631703291</v>
       </c>
       <c r="K23">
-        <v>4.452267779643705</v>
+        <v>7.130947896609257</v>
       </c>
       <c r="L23">
-        <v>0.1488506276034478</v>
+        <v>0.0508489288496321</v>
       </c>
       <c r="M23">
-        <v>1.007612372728033</v>
+        <v>1.310433778315357</v>
       </c>
       <c r="N23">
-        <v>2.635823552019364</v>
+        <v>0.9507087020815135</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04457393119687225</v>
+        <v>0.02869755443049371</v>
       </c>
       <c r="D24">
-        <v>0.007094758734416118</v>
+        <v>0.003368669825299264</v>
       </c>
       <c r="E24">
-        <v>0.07593550223799639</v>
+        <v>0.02871899114146537</v>
       </c>
       <c r="F24">
-        <v>4.541047973785453</v>
+        <v>2.861535426532669</v>
       </c>
       <c r="G24">
-        <v>0.002643860093417577</v>
+        <v>0.0008197500981270393</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.31961995683362</v>
+        <v>2.101108921711884</v>
       </c>
       <c r="J24">
-        <v>0.1911089153393668</v>
+        <v>0.07131631969535235</v>
       </c>
       <c r="K24">
-        <v>4.225315191139714</v>
+        <v>6.089313789912637</v>
       </c>
       <c r="L24">
-        <v>0.1496540115317728</v>
+        <v>0.05072948286107248</v>
       </c>
       <c r="M24">
-        <v>0.9698387599310792</v>
+        <v>1.127398538203096</v>
       </c>
       <c r="N24">
-        <v>2.678735384651731</v>
+        <v>1.062146384991209</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04366866230719779</v>
+        <v>0.0243608453762576</v>
       </c>
       <c r="D25">
-        <v>0.006794991725449506</v>
+        <v>0.002594438535579613</v>
       </c>
       <c r="E25">
-        <v>0.07608503420182267</v>
+        <v>0.02731595005264786</v>
       </c>
       <c r="F25">
-        <v>4.528744781275591</v>
+        <v>2.595051839292736</v>
       </c>
       <c r="G25">
-        <v>0.00265313569491802</v>
+        <v>0.0008354387050085966</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.310688440994312</v>
+        <v>1.905384014678489</v>
       </c>
       <c r="J25">
-        <v>0.1925755597268513</v>
+        <v>0.07089619150559301</v>
       </c>
       <c r="K25">
-        <v>3.988243426539157</v>
+        <v>5.008064064261816</v>
       </c>
       <c r="L25">
-        <v>0.150645977718094</v>
+        <v>0.05079965913331996</v>
       </c>
       <c r="M25">
-        <v>0.9307840377236687</v>
+        <v>0.9376405191138133</v>
       </c>
       <c r="N25">
-        <v>2.728224913747951</v>
+        <v>1.190851431510442</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02122998515870478</v>
+        <v>0.06905872449129191</v>
       </c>
       <c r="D2">
-        <v>0.00208097663778517</v>
+        <v>0.01583483949890052</v>
       </c>
       <c r="E2">
-        <v>0.02636711225833199</v>
+        <v>0.09962736160937635</v>
       </c>
       <c r="F2">
-        <v>2.419778888310688</v>
+        <v>0.7985642483931628</v>
       </c>
       <c r="G2">
-        <v>0.000847372327256674</v>
+        <v>0.7263060938936263</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00712114790636742</v>
       </c>
       <c r="I2">
-        <v>1.776839567463028</v>
+        <v>0.04811612532004084</v>
       </c>
       <c r="J2">
-        <v>0.07092116131376258</v>
+        <v>0.4247451038311283</v>
       </c>
       <c r="K2">
-        <v>4.239269883397014</v>
+        <v>0.6093024946255525</v>
       </c>
       <c r="L2">
-        <v>0.05100747806068462</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8029525451459847</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.292169041203554</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.434027339833534</v>
+      </c>
+      <c r="P2">
+        <v>4.210857537782886</v>
+      </c>
+      <c r="Q2">
+        <v>2.380859815797038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01913837988966804</v>
+        <v>0.06327776878679003</v>
       </c>
       <c r="D3">
-        <v>0.001757871569711966</v>
+        <v>0.01393844891568818</v>
       </c>
       <c r="E3">
-        <v>0.02577132604388765</v>
+        <v>0.09822990877042526</v>
       </c>
       <c r="F3">
-        <v>2.31193251784876</v>
+        <v>0.7063476535423945</v>
       </c>
       <c r="G3">
-        <v>0.0008557339705344204</v>
+        <v>0.638527065812724</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004868390345373785</v>
       </c>
       <c r="I3">
-        <v>1.697850584819847</v>
+        <v>0.04118065503420087</v>
       </c>
       <c r="J3">
-        <v>0.07112591766754406</v>
+        <v>0.3863132794821382</v>
       </c>
       <c r="K3">
-        <v>3.731427046916167</v>
+        <v>0.5432144062257152</v>
       </c>
       <c r="L3">
-        <v>0.05123929555521656</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7141402660114551</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.364599417570485</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.123073286617668</v>
+      </c>
+      <c r="P3">
+        <v>3.753462046806533</v>
+      </c>
+      <c r="Q3">
+        <v>2.114036239926406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01786658270357222</v>
+        <v>0.05961309979481655</v>
       </c>
       <c r="D4">
-        <v>0.001568863169774559</v>
+        <v>0.01278328706817788</v>
       </c>
       <c r="E4">
-        <v>0.02542728853311971</v>
+        <v>0.09734032354726807</v>
       </c>
       <c r="F4">
-        <v>2.25049169161376</v>
+        <v>0.6500439732161709</v>
       </c>
       <c r="G4">
-        <v>0.0008610137513904787</v>
+        <v>0.5848308181854378</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003661522372903514</v>
       </c>
       <c r="I4">
-        <v>1.652898813083851</v>
+        <v>0.03705869702082643</v>
       </c>
       <c r="J4">
-        <v>0.07133825619798273</v>
+        <v>0.3628919668007171</v>
       </c>
       <c r="K4">
-        <v>3.424986474874743</v>
+        <v>0.5026444696926404</v>
       </c>
       <c r="L4">
-        <v>0.05142463395825025</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6606313743548995</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.410836486652606</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.931443217164286</v>
+      </c>
+      <c r="P4">
+        <v>3.472530049707132</v>
+      </c>
+      <c r="Q4">
+        <v>1.950988627619779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01735112896815139</v>
+        <v>0.05783702712835037</v>
       </c>
       <c r="D5">
-        <v>0.001493820265531909</v>
+        <v>0.01234189155142218</v>
       </c>
       <c r="E5">
-        <v>0.02529236238577415</v>
+        <v>0.09696497611761701</v>
       </c>
       <c r="F5">
-        <v>2.226571603087891</v>
+        <v>0.6265760754114851</v>
       </c>
       <c r="G5">
-        <v>0.0008632033634409558</v>
+        <v>0.5623266996640126</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003208653143033868</v>
       </c>
       <c r="I5">
-        <v>1.635410263795663</v>
+        <v>0.03542854831305986</v>
       </c>
       <c r="J5">
-        <v>0.07144574611691823</v>
+        <v>0.3530564340217808</v>
       </c>
       <c r="K5">
-        <v>3.30131079299565</v>
+        <v>0.4853156375219427</v>
       </c>
       <c r="L5">
-        <v>0.05151071973409671</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6390569576049643</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.430109275442124</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.852660430408079</v>
+      </c>
+      <c r="P5">
+        <v>3.358329098069447</v>
+      </c>
+      <c r="Q5">
+        <v>1.882613464052639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0172656994848488</v>
+        <v>0.05723209950863861</v>
       </c>
       <c r="D6">
-        <v>0.001481468722886348</v>
+        <v>0.01230218040836917</v>
       </c>
       <c r="E6">
-        <v>0.02527027075656729</v>
+        <v>0.09689738741436216</v>
       </c>
       <c r="F6">
-        <v>2.22266486173767</v>
+        <v>0.6219583387267917</v>
       </c>
       <c r="G6">
-        <v>0.0008635692852312456</v>
+        <v>0.5577815466494798</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003133598728447984</v>
       </c>
       <c r="I6">
-        <v>1.632554678417335</v>
+        <v>0.03519102326297485</v>
       </c>
       <c r="J6">
-        <v>0.07146483789535196</v>
+        <v>0.3510208665376524</v>
       </c>
       <c r="K6">
-        <v>3.280842915476342</v>
+        <v>0.4814682289510515</v>
       </c>
       <c r="L6">
-        <v>0.05152564488261469</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6354877616072869</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.433335169992684</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.838940823053363</v>
+      </c>
+      <c r="P6">
+        <v>3.339737102741964</v>
+      </c>
+      <c r="Q6">
+        <v>1.868703300520934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0178596201193244</v>
+        <v>0.05874175813736571</v>
       </c>
       <c r="D7">
-        <v>0.001567843570219551</v>
+        <v>0.01286894400134742</v>
       </c>
       <c r="E7">
-        <v>0.02542544778387068</v>
+        <v>0.09732282561025762</v>
       </c>
       <c r="F7">
-        <v>2.250164677990313</v>
+        <v>0.6477414197821219</v>
       </c>
       <c r="G7">
-        <v>0.0008610431253678835</v>
+        <v>0.5823059338947871</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003648690169259727</v>
       </c>
       <c r="I7">
-        <v>1.652659676144907</v>
+        <v>0.03710826810409529</v>
       </c>
       <c r="J7">
-        <v>0.071339622015131</v>
+        <v>0.3616510650105056</v>
       </c>
       <c r="K7">
-        <v>3.423313867826607</v>
+        <v>0.4997538003754514</v>
       </c>
       <c r="L7">
-        <v>0.05142575251009696</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6603395124323157</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.411094678159444</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.928663582511291</v>
+      </c>
+      <c r="P7">
+        <v>3.472011347017883</v>
+      </c>
+      <c r="Q7">
+        <v>1.943036435025562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02050601229034754</v>
+        <v>0.06595501533671211</v>
       </c>
       <c r="D8">
-        <v>0.001967381496374543</v>
+        <v>0.01530142548015334</v>
       </c>
       <c r="E8">
-        <v>0.02615703675521797</v>
+        <v>0.09913724793501233</v>
       </c>
       <c r="F8">
-        <v>2.381549418280599</v>
+        <v>0.7640408348066927</v>
       </c>
       <c r="G8">
-        <v>0.0008502260710047943</v>
+        <v>0.6930216400897251</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00629450924555508</v>
       </c>
       <c r="I8">
-        <v>1.748828652861505</v>
+        <v>0.04576432950251075</v>
       </c>
       <c r="J8">
-        <v>0.07097326957996941</v>
+        <v>0.4099760847752663</v>
       </c>
       <c r="K8">
-        <v>4.062954996260373</v>
+        <v>0.5829607057152586</v>
       </c>
       <c r="L8">
-        <v>0.05107832434730497</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7721014894977003</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.31676871975143</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.324656024666339</v>
+      </c>
+      <c r="P8">
+        <v>4.054534678919595</v>
+      </c>
+      <c r="Q8">
+        <v>2.279284619249893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02581074687742557</v>
+        <v>0.08073388910482038</v>
       </c>
       <c r="D9">
-        <v>0.002844894249376395</v>
+        <v>0.01999031321449252</v>
       </c>
       <c r="E9">
-        <v>0.02777472079927001</v>
+        <v>0.1025107051959115</v>
       </c>
       <c r="F9">
-        <v>2.681257918631204</v>
+        <v>0.9987702548256294</v>
       </c>
       <c r="G9">
-        <v>0.0008300997348136907</v>
+        <v>0.9162583088906757</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01306568279553116</v>
       </c>
       <c r="I9">
-        <v>1.968667142874253</v>
+        <v>0.06395078374683028</v>
       </c>
       <c r="J9">
-        <v>0.07098278879780651</v>
+        <v>0.5083685238414972</v>
       </c>
       <c r="K9">
-        <v>5.367480684102645</v>
+        <v>0.7512815393186401</v>
       </c>
       <c r="L9">
-        <v>0.05075083595364127</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.000682538459799</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.146432385530439</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.098947045654782</v>
+      </c>
+      <c r="P9">
+        <v>5.194436606523027</v>
+      </c>
+      <c r="Q9">
+        <v>2.959162059225832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02980437346778331</v>
+        <v>0.09089793811371294</v>
       </c>
       <c r="D10">
-        <v>0.003578680924633204</v>
+        <v>0.02390592725216933</v>
       </c>
       <c r="E10">
-        <v>0.02909081858665274</v>
+        <v>0.102752257853697</v>
       </c>
       <c r="F10">
-        <v>2.933542033652145</v>
+        <v>1.165244752533553</v>
       </c>
       <c r="G10">
-        <v>0.0008158668604348083</v>
+        <v>1.07260391771257</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01887719156007694</v>
       </c>
       <c r="I10">
-        <v>2.154042393959614</v>
+        <v>0.07824051563493395</v>
       </c>
       <c r="J10">
-        <v>0.07149648080307358</v>
+        <v>0.577175343685866</v>
       </c>
       <c r="K10">
-        <v>6.36823539048487</v>
+        <v>0.8682978169700561</v>
       </c>
       <c r="L10">
-        <v>0.05074546108023981</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.176392970028203</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.031190640105059</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.601028412880055</v>
+      </c>
+      <c r="P10">
+        <v>6.070260449590478</v>
+      </c>
+      <c r="Q10">
+        <v>3.435078559367071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03164883904980087</v>
+        <v>0.09658372594133624</v>
       </c>
       <c r="D11">
-        <v>0.003940423756802147</v>
+        <v>0.02917487409806441</v>
       </c>
       <c r="E11">
-        <v>0.02972133049630976</v>
+        <v>0.1347694789364304</v>
       </c>
       <c r="F11">
-        <v>3.056924069120953</v>
+        <v>1.171732861357853</v>
       </c>
       <c r="G11">
-        <v>0.0008094850309765812</v>
+        <v>1.066329692555598</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03619282254665634</v>
       </c>
       <c r="I11">
-        <v>2.244781959361163</v>
+        <v>0.08361658796560167</v>
       </c>
       <c r="J11">
-        <v>0.07185623256896179</v>
+        <v>0.5700040927571877</v>
       </c>
       <c r="K11">
-        <v>6.835685038753866</v>
+        <v>0.8658731825781558</v>
       </c>
       <c r="L11">
-        <v>0.05079906075979324</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.25853361449218</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9811675596580081</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>3.29084738493647</v>
+      </c>
+      <c r="P11">
+        <v>6.812020893644842</v>
+      </c>
+      <c r="Q11">
+        <v>3.406959460051667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03235192538993203</v>
+        <v>0.1010496309378013</v>
       </c>
       <c r="D12">
-        <v>0.004082283213179494</v>
+        <v>0.03291412262525739</v>
       </c>
       <c r="E12">
-        <v>0.02996504977339853</v>
+        <v>0.2313478020574991</v>
       </c>
       <c r="F12">
-        <v>3.105041596027149</v>
+        <v>1.144600431084697</v>
       </c>
       <c r="G12">
-        <v>0.0008070791804355041</v>
+        <v>1.031357935891094</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07346204092407049</v>
       </c>
       <c r="I12">
-        <v>2.280181734408515</v>
+        <v>0.08510772960787261</v>
       </c>
       <c r="J12">
-        <v>0.07201212173158567</v>
+        <v>0.5508572980130424</v>
       </c>
       <c r="K12">
-        <v>7.014734735055526</v>
+        <v>0.8430559987298167</v>
       </c>
       <c r="L12">
-        <v>0.05082788932617532</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.290004928515373</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9625950450813257</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>2.941510182622324</v>
+      </c>
+      <c r="P12">
+        <v>7.269528445151423</v>
+      </c>
+      <c r="Q12">
+        <v>3.292824266212335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03220028629375093</v>
+        <v>0.1034499513420144</v>
       </c>
       <c r="D13">
-        <v>0.00405149926673154</v>
+        <v>0.0357930643138431</v>
       </c>
       <c r="E13">
-        <v>0.02991233334107157</v>
+        <v>0.3806716287251604</v>
       </c>
       <c r="F13">
-        <v>3.094613863838873</v>
+        <v>1.086745946240256</v>
       </c>
       <c r="G13">
-        <v>0.0008075968862170367</v>
+        <v>0.9687356600465051</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1275172819203618</v>
       </c>
       <c r="I13">
-        <v>2.272509548689428</v>
+        <v>0.08373054905324473</v>
       </c>
       <c r="J13">
-        <v>0.07197764747706259</v>
+        <v>0.5195987222076042</v>
       </c>
       <c r="K13">
-        <v>6.976077726322842</v>
+        <v>0.7989774393639522</v>
       </c>
       <c r="L13">
-        <v>0.05082129300333449</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.283209878958715</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9665780755103413</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>2.541771651415473</v>
+      </c>
+      <c r="P13">
+        <v>7.531686888051581</v>
+      </c>
+      <c r="Q13">
+        <v>3.094637279020134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03170658569130325</v>
+        <v>0.1039259223660167</v>
       </c>
       <c r="D14">
-        <v>0.003951991506363939</v>
+        <v>0.03746560244599806</v>
       </c>
       <c r="E14">
-        <v>0.02974127969589624</v>
+        <v>0.5163137696459899</v>
       </c>
       <c r="F14">
-        <v>3.06085379533863</v>
+        <v>1.032080480693466</v>
       </c>
       <c r="G14">
-        <v>0.0008092868991705513</v>
+        <v>0.91215571830638</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1756218311152793</v>
       </c>
       <c r="I14">
-        <v>2.247672783038453</v>
+        <v>0.08153696798000798</v>
       </c>
       <c r="J14">
-        <v>0.07186865423130584</v>
+        <v>0.492087045162819</v>
       </c>
       <c r="K14">
-        <v>6.850373005515792</v>
+        <v>0.7579730358514922</v>
       </c>
       <c r="L14">
-        <v>0.05080125861035967</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.261115133604719</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9796320155494982</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>2.243539660322512</v>
+      </c>
+      <c r="P14">
+        <v>7.626771731083522</v>
+      </c>
+      <c r="Q14">
+        <v>2.917065674378364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03140480280055158</v>
+        <v>0.1031395437845291</v>
       </c>
       <c r="D15">
-        <v>0.003891702834696531</v>
+        <v>0.03769894158524778</v>
       </c>
       <c r="E15">
-        <v>0.02963716227083424</v>
+        <v>0.5508606737005763</v>
       </c>
       <c r="F15">
-        <v>3.040361476479262</v>
+        <v>1.011624660901816</v>
       </c>
       <c r="G15">
-        <v>0.0008103234084548629</v>
+        <v>0.8917793960969647</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1876510251191092</v>
       </c>
       <c r="I15">
-        <v>2.232598524451191</v>
+        <v>0.08041937951711109</v>
       </c>
       <c r="J15">
-        <v>0.07180450151938444</v>
+        <v>0.4824808801436404</v>
       </c>
       <c r="K15">
-        <v>6.773649439871804</v>
+        <v>0.7425621415074986</v>
       </c>
       <c r="L15">
-        <v>0.0507901130082935</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.247630734939037</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9876769270363077</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>2.158382286879558</v>
+      </c>
+      <c r="P15">
+        <v>7.605575322440814</v>
+      </c>
+      <c r="Q15">
+        <v>2.853732793072737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02968444420351091</v>
+        <v>0.09763183704914269</v>
       </c>
       <c r="D16">
-        <v>0.003555672657510556</v>
+        <v>0.0353756593329777</v>
       </c>
       <c r="E16">
-        <v>0.02905028503872487</v>
+        <v>0.5158496294983266</v>
       </c>
       <c r="F16">
-        <v>2.925665050906332</v>
+        <v>0.9511396125160729</v>
       </c>
       <c r="G16">
-        <v>0.0008162855852667196</v>
+        <v>0.8368494645381901</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1728054403796762</v>
       </c>
       <c r="I16">
-        <v>2.148251018035239</v>
+        <v>0.07444768895943099</v>
       </c>
       <c r="J16">
-        <v>0.07147563366295628</v>
+        <v>0.4589070057471645</v>
       </c>
       <c r="K16">
-        <v>6.337955313320549</v>
+        <v>0.7002470035755124</v>
       </c>
       <c r="L16">
-        <v>0.05074312509668744</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.171073373143074</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.034510135671916</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>2.035607276357695</v>
+      </c>
+      <c r="P16">
+        <v>7.163945129255865</v>
+      </c>
+      <c r="Q16">
+        <v>2.687749851291528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0286365938172608</v>
+        <v>0.09312568506546626</v>
       </c>
       <c r="D17">
-        <v>0.003357253817101835</v>
+        <v>0.03270778268059615</v>
       </c>
       <c r="E17">
-        <v>0.02869866145897504</v>
+        <v>0.4118871276910241</v>
       </c>
       <c r="F17">
-        <v>2.85761481875609</v>
+        <v>0.9337632406563614</v>
       </c>
       <c r="G17">
-        <v>0.0008199652395681116</v>
+        <v>0.8246281381744751</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1340502620858928</v>
       </c>
       <c r="I17">
-        <v>2.098227318959687</v>
+        <v>0.07108091028036601</v>
       </c>
       <c r="J17">
-        <v>0.07130720539528212</v>
+        <v>0.4554111763240627</v>
       </c>
       <c r="K17">
-        <v>6.073986222133556</v>
+        <v>0.6894427057796761</v>
       </c>
       <c r="L17">
-        <v>0.05072897285147704</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.124706586678712</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.063872474769358</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>2.096119905067454</v>
+      </c>
+      <c r="P17">
+        <v>6.776166861502531</v>
+      </c>
+      <c r="Q17">
+        <v>2.654397444078882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02803646663183912</v>
+        <v>0.08994199140663284</v>
       </c>
       <c r="D18">
-        <v>0.003245699631007071</v>
+        <v>0.02944463163701272</v>
       </c>
       <c r="E18">
-        <v>0.02849938568925481</v>
+        <v>0.269263968977917</v>
       </c>
       <c r="F18">
-        <v>2.819274754322507</v>
+        <v>0.9528599041751278</v>
       </c>
       <c r="G18">
-        <v>0.0008220905797963528</v>
+        <v>0.8495325301991699</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08139930699234554</v>
       </c>
       <c r="I18">
-        <v>2.070050706972793</v>
+        <v>0.0694464030325026</v>
       </c>
       <c r="J18">
-        <v>0.07122209443409133</v>
+        <v>0.469569721797356</v>
       </c>
       <c r="K18">
-        <v>5.923287824800468</v>
+        <v>0.7065756301774826</v>
       </c>
       <c r="L18">
-        <v>0.05072607667393925</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.098242319082566</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.080985242476</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>2.331888789163742</v>
+      </c>
+      <c r="P18">
+        <v>6.395905639178466</v>
+      </c>
+      <c r="Q18">
+        <v>2.736750676160767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02783369696110327</v>
+        <v>0.08650299150077245</v>
       </c>
       <c r="D19">
-        <v>0.0032083469084494</v>
+        <v>0.02631800236195048</v>
       </c>
       <c r="E19">
-        <v>0.02843241328642776</v>
+        <v>0.1523723032772821</v>
       </c>
       <c r="F19">
-        <v>2.80642651803808</v>
+        <v>0.9964796521667125</v>
       </c>
       <c r="G19">
-        <v>0.0008228117846251276</v>
+        <v>0.8990528976878238</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03770460635082884</v>
       </c>
       <c r="I19">
-        <v>2.060609574252354</v>
+        <v>0.06966179509352877</v>
       </c>
       <c r="J19">
-        <v>0.07119525422863049</v>
+        <v>0.4950410671208374</v>
       </c>
       <c r="K19">
-        <v>5.872449910595321</v>
+        <v>0.7403249636120393</v>
       </c>
       <c r="L19">
-        <v>0.05072598320846566</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.089315735905188</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.086817152056085</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>2.705372417257934</v>
+      </c>
+      <c r="P19">
+        <v>6.059329470421858</v>
+      </c>
+      <c r="Q19">
+        <v>2.895016957459404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02874786908239457</v>
+        <v>0.08558994523671259</v>
       </c>
       <c r="D20">
-        <v>0.003378103958684875</v>
+        <v>0.02318607404779627</v>
       </c>
       <c r="E20">
-        <v>0.02873578249621644</v>
+        <v>0.1024774746759152</v>
       </c>
       <c r="F20">
-        <v>2.864774948027161</v>
+        <v>1.114626860555958</v>
       </c>
       <c r="G20">
-        <v>0.0008195726303070911</v>
+        <v>1.023899334194539</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0171880193944185</v>
       </c>
       <c r="I20">
-        <v>2.103489974607641</v>
+        <v>0.07465237310582484</v>
       </c>
       <c r="J20">
-        <v>0.07132390678984635</v>
+        <v>0.5552938336795563</v>
       </c>
       <c r="K20">
-        <v>6.101967334613278</v>
+        <v>0.8287693486151966</v>
       </c>
       <c r="L20">
-        <v>0.05072993342160004</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.12962089197174</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.0607234163774</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.461358845245968</v>
+      </c>
+      <c r="P20">
+        <v>5.845088195290884</v>
+      </c>
+      <c r="Q20">
+        <v>3.285909821101029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03185146643571102</v>
+        <v>0.093377621523004</v>
       </c>
       <c r="D21">
-        <v>0.003981079511612862</v>
+        <v>0.02560504753782666</v>
       </c>
       <c r="E21">
-        <v>0.02979138444627871</v>
+        <v>0.1061590370550816</v>
       </c>
       <c r="F21">
-        <v>3.070730731110672</v>
+        <v>1.256598984436181</v>
       </c>
       <c r="G21">
-        <v>0.0008087902296251016</v>
+        <v>1.159432760072178</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02266467538248218</v>
       </c>
       <c r="I21">
-        <v>2.254938751146852</v>
+        <v>0.08628549920025375</v>
       </c>
       <c r="J21">
-        <v>0.07190012151710334</v>
+        <v>0.615913793912199</v>
       </c>
       <c r="K21">
-        <v>6.887237830902393</v>
+        <v>0.9297811411280179</v>
       </c>
       <c r="L21">
-        <v>0.05080690760668816</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.267594532191211</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9757874971311189</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>3.944260486896837</v>
+      </c>
+      <c r="P21">
+        <v>6.458141647974799</v>
+      </c>
+      <c r="Q21">
+        <v>3.700452575185523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03390717807671706</v>
+        <v>0.09962067746874936</v>
       </c>
       <c r="D22">
-        <v>0.004404078243450016</v>
+        <v>0.02726085709307213</v>
       </c>
       <c r="E22">
-        <v>0.03051039412378564</v>
+        <v>0.1074050320011275</v>
       </c>
       <c r="F22">
-        <v>3.213555584721632</v>
+        <v>1.348947228899462</v>
       </c>
       <c r="G22">
-        <v>0.0008018049135826916</v>
+        <v>1.247295196449755</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02637074624448088</v>
       </c>
       <c r="I22">
-        <v>2.360038578784952</v>
+        <v>0.09398821103600952</v>
       </c>
       <c r="J22">
-        <v>0.07239215041727221</v>
+        <v>0.6552179423220252</v>
       </c>
       <c r="K22">
-        <v>7.412486110350869</v>
+        <v>0.9966207551381387</v>
       </c>
       <c r="L22">
-        <v>0.05090720475751098</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.359931316701619</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9224483861637651</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.229809511422332</v>
+      </c>
+      <c r="P22">
+        <v>6.876774887318334</v>
+      </c>
+      <c r="Q22">
+        <v>3.969194446665711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03280727156271723</v>
+        <v>0.09731005341961918</v>
       </c>
       <c r="D23">
-        <v>0.004175349061052103</v>
+        <v>0.02626206951501331</v>
       </c>
       <c r="E23">
-        <v>0.03012384196999562</v>
+        <v>0.1067415705288521</v>
       </c>
       <c r="F23">
-        <v>3.136518151986422</v>
+        <v>1.302019742271938</v>
       </c>
       <c r="G23">
-        <v>0.0008055283888473191</v>
+        <v>1.203065273169727</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02438200473312557</v>
       </c>
       <c r="I23">
-        <v>2.303342415982613</v>
+        <v>0.08974803943806364</v>
       </c>
       <c r="J23">
-        <v>0.07211842631703291</v>
+        <v>0.6355548341060739</v>
       </c>
       <c r="K23">
-        <v>7.130947896609257</v>
+        <v>0.9641632873591846</v>
       </c>
       <c r="L23">
-        <v>0.0508489288496321</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.310433778315357</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9507087020815135</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.07955019670392</v>
+      </c>
+      <c r="P23">
+        <v>6.652068236592754</v>
+      </c>
+      <c r="Q23">
+        <v>3.834161245603127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02869755443049371</v>
+        <v>0.08680061748584933</v>
       </c>
       <c r="D24">
-        <v>0.003368669825299264</v>
+        <v>0.02269105640342417</v>
       </c>
       <c r="E24">
-        <v>0.02871899114146537</v>
+        <v>0.1042597718690139</v>
       </c>
       <c r="F24">
-        <v>2.861535426532669</v>
+        <v>1.122066347107506</v>
       </c>
       <c r="G24">
-        <v>0.0008197500981270393</v>
+        <v>1.032597477747018</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01742113219095609</v>
       </c>
       <c r="I24">
-        <v>2.101108921711884</v>
+        <v>0.07442968963843111</v>
       </c>
       <c r="J24">
-        <v>0.07131631969535235</v>
+        <v>0.559719413403684</v>
       </c>
       <c r="K24">
-        <v>6.089313789912637</v>
+        <v>0.8367299723667614</v>
       </c>
       <c r="L24">
-        <v>0.05072948286107248</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.127398538203096</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.062146384991209</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.506444726448677</v>
+      </c>
+      <c r="P24">
+        <v>5.803316593378611</v>
+      </c>
+      <c r="Q24">
+        <v>3.313608982448841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0243608453762576</v>
+        <v>0.07528106023295322</v>
       </c>
       <c r="D25">
-        <v>0.002594438535579613</v>
+        <v>0.01888123208560799</v>
       </c>
       <c r="E25">
-        <v>0.02731595005264786</v>
+        <v>0.101598806590427</v>
       </c>
       <c r="F25">
-        <v>2.595051839292736</v>
+        <v>0.9311897810954406</v>
       </c>
       <c r="G25">
-        <v>0.0008354387050085966</v>
+        <v>0.8514597028944735</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01102215420954394</v>
       </c>
       <c r="I25">
-        <v>1.905384014678489</v>
+        <v>0.0589857692605662</v>
       </c>
       <c r="J25">
-        <v>0.07089619150559301</v>
+        <v>0.4795036558469548</v>
       </c>
       <c r="K25">
-        <v>5.008064064261816</v>
+        <v>0.7007697991204083</v>
       </c>
       <c r="L25">
-        <v>0.05079965913331996</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9376405191138133</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.190851431510442</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.886835825590822</v>
+      </c>
+      <c r="P25">
+        <v>4.887987331011743</v>
+      </c>
+      <c r="Q25">
+        <v>2.761197963523188</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06905872449129191</v>
+        <v>0.04809417752460732</v>
       </c>
       <c r="D2">
-        <v>0.01583483949890052</v>
+        <v>0.02120158759769097</v>
       </c>
       <c r="E2">
-        <v>0.09962736160937635</v>
+        <v>0.09160241214466325</v>
       </c>
       <c r="F2">
-        <v>0.7985642483931628</v>
+        <v>0.7166383841218504</v>
       </c>
       <c r="G2">
-        <v>0.7263060938936263</v>
+        <v>0.621985818487957</v>
       </c>
       <c r="H2">
-        <v>0.00712114790636742</v>
+        <v>0.006093690409418095</v>
       </c>
       <c r="I2">
-        <v>0.04811612532004084</v>
+        <v>0.0390716697149518</v>
       </c>
       <c r="J2">
-        <v>0.4247451038311283</v>
+        <v>0.434270512721298</v>
       </c>
       <c r="K2">
-        <v>0.6093024946255525</v>
+        <v>0.5046798851835916</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2635239959231086</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1528131640311159</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.434027339833534</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.210857537782886</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.380859815797038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.356277679013274</v>
+      </c>
+      <c r="R2">
+        <v>4.258153262329301</v>
+      </c>
+      <c r="S2">
+        <v>2.098497853337079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06327776878679003</v>
+        <v>0.04504262324382857</v>
       </c>
       <c r="D3">
-        <v>0.01393844891568818</v>
+        <v>0.01843678419718486</v>
       </c>
       <c r="E3">
-        <v>0.09822990877042526</v>
+        <v>0.09094520541919415</v>
       </c>
       <c r="F3">
-        <v>0.7063476535423945</v>
+        <v>0.6388285475068471</v>
       </c>
       <c r="G3">
-        <v>0.638527065812724</v>
+        <v>0.5488797398945593</v>
       </c>
       <c r="H3">
-        <v>0.004868390345373785</v>
+        <v>0.004117801598435999</v>
       </c>
       <c r="I3">
-        <v>0.04118065503420087</v>
+        <v>0.03377902183565595</v>
       </c>
       <c r="J3">
-        <v>0.3863132794821382</v>
+        <v>0.4024788906755248</v>
       </c>
       <c r="K3">
-        <v>0.5432144062257152</v>
+        <v>0.4563985027748032</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2564038664309649</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1235783336203653</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.123073286617668</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.753462046806533</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.114036239926406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.058181492204241</v>
+      </c>
+      <c r="R3">
+        <v>3.793046735430352</v>
+      </c>
+      <c r="S3">
+        <v>1.881447461277361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05961309979481655</v>
+        <v>0.0431253341776987</v>
       </c>
       <c r="D4">
-        <v>0.01278328706817788</v>
+        <v>0.01675831191701604</v>
       </c>
       <c r="E4">
-        <v>0.09734032354726807</v>
+        <v>0.0905355568881534</v>
       </c>
       <c r="F4">
-        <v>0.6500439732161709</v>
+        <v>0.5911787686849266</v>
       </c>
       <c r="G4">
-        <v>0.5848308181854378</v>
+        <v>0.5040875058048755</v>
       </c>
       <c r="H4">
-        <v>0.003661522372903514</v>
+        <v>0.003064471843465588</v>
       </c>
       <c r="I4">
-        <v>0.03705869702082643</v>
+        <v>0.03062574871242596</v>
       </c>
       <c r="J4">
-        <v>0.3628919668007171</v>
+        <v>0.3829041747065247</v>
       </c>
       <c r="K4">
-        <v>0.5026444696926404</v>
+        <v>0.4265730921172946</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2517189886500617</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1063068899000683</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.931443217164286</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.472530049707132</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.950988627619779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.874322004575234</v>
+      </c>
+      <c r="R4">
+        <v>3.507432861012376</v>
+      </c>
+      <c r="S4">
+        <v>1.748321118889351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05783702712835037</v>
+        <v>0.04222835100717326</v>
       </c>
       <c r="D5">
-        <v>0.01234189155142218</v>
+        <v>0.01610977022983562</v>
       </c>
       <c r="E5">
-        <v>0.09696497611761701</v>
+        <v>0.09036770817653839</v>
       </c>
       <c r="F5">
-        <v>0.6265760754114851</v>
+        <v>0.5712359260011937</v>
       </c>
       <c r="G5">
-        <v>0.5623266996640126</v>
+        <v>0.4852452369621716</v>
       </c>
       <c r="H5">
-        <v>0.003208653143033868</v>
+        <v>0.002670776281727405</v>
       </c>
       <c r="I5">
-        <v>0.03542854831305986</v>
+        <v>0.02939871752658352</v>
       </c>
       <c r="J5">
-        <v>0.3530564340217808</v>
+        <v>0.3745994013132048</v>
       </c>
       <c r="K5">
-        <v>0.4853156375219427</v>
+        <v>0.4136686269436609</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2494232176025335</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09920927721880446</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.852660430408079</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3.358329098069447</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.882613464052639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.79869626373592</v>
+      </c>
+      <c r="R5">
+        <v>3.391331494253734</v>
+      </c>
+      <c r="S5">
+        <v>1.692163103138171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05723209950863861</v>
+        <v>0.04195464082705769</v>
       </c>
       <c r="D6">
-        <v>0.01230218040836917</v>
+        <v>0.01604037188247531</v>
       </c>
       <c r="E6">
-        <v>0.09689738741436216</v>
+        <v>0.09034185688539775</v>
       </c>
       <c r="F6">
-        <v>0.6219583387267917</v>
+        <v>0.5672543827701446</v>
       </c>
       <c r="G6">
-        <v>0.5577815466494798</v>
+        <v>0.4813785325256674</v>
       </c>
       <c r="H6">
-        <v>0.003133598728447984</v>
+        <v>0.002605714215094035</v>
       </c>
       <c r="I6">
-        <v>0.03519102326297485</v>
+        <v>0.02925015520731566</v>
       </c>
       <c r="J6">
-        <v>0.3510208665376524</v>
+        <v>0.372837004511311</v>
       </c>
       <c r="K6">
-        <v>0.4814682289510515</v>
+        <v>0.4106645934141113</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2486618954519031</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09776152305452257</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.838940823053363</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3.339737102741964</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.868703300520934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.785523700410423</v>
+      </c>
+      <c r="R6">
+        <v>3.372417378419811</v>
+      </c>
+      <c r="S6">
+        <v>1.680487093196689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05874175813736571</v>
+        <v>0.04280395682737925</v>
       </c>
       <c r="D7">
-        <v>0.01286894400134742</v>
+        <v>0.01691688699603944</v>
       </c>
       <c r="E7">
-        <v>0.09732282561025762</v>
+        <v>0.09054694641425698</v>
       </c>
       <c r="F7">
-        <v>0.6477414197821219</v>
+        <v>0.5879643647016977</v>
       </c>
       <c r="G7">
-        <v>0.5823059338947871</v>
+        <v>0.5060875461392129</v>
       </c>
       <c r="H7">
-        <v>0.003648690169259727</v>
+        <v>0.003050427025996338</v>
       </c>
       <c r="I7">
-        <v>0.03710826810409529</v>
+        <v>0.03072202973157623</v>
       </c>
       <c r="J7">
-        <v>0.3616510650105056</v>
+        <v>0.375325274217019</v>
       </c>
       <c r="K7">
-        <v>0.4997538003754514</v>
+        <v>0.4232730488363288</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2503444258816714</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.105170063403893</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.928663582511291</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3.472011347017883</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.943036435025562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.870658517767666</v>
+      </c>
+      <c r="R7">
+        <v>3.507471842153024</v>
+      </c>
+      <c r="S7">
+        <v>1.737248492535144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06595501533671211</v>
+        <v>0.04671487998407997</v>
       </c>
       <c r="D8">
-        <v>0.01530142548015334</v>
+        <v>0.02059802509910114</v>
       </c>
       <c r="E8">
-        <v>0.09913724793501233</v>
+        <v>0.0914212342343248</v>
       </c>
       <c r="F8">
-        <v>0.7640408348066927</v>
+        <v>0.6836331260184494</v>
       </c>
       <c r="G8">
-        <v>0.6930216400897251</v>
+        <v>0.6084040556376209</v>
       </c>
       <c r="H8">
-        <v>0.00629450924555508</v>
+        <v>0.005354928229110711</v>
       </c>
       <c r="I8">
-        <v>0.04576432950251075</v>
+        <v>0.03731102565809508</v>
       </c>
       <c r="J8">
-        <v>0.4099760847752663</v>
+        <v>0.4007453685220668</v>
       </c>
       <c r="K8">
-        <v>0.5829607057152586</v>
+        <v>0.4823632479851909</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2588136160750238</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.140561036444975</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.324656024666339</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>4.054534678919595</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.279284619249893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.248126775617308</v>
+      </c>
+      <c r="R8">
+        <v>4.101165825907145</v>
+      </c>
+      <c r="S8">
+        <v>2.002115775292282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08073388910482038</v>
+        <v>0.05455572050604829</v>
       </c>
       <c r="D9">
-        <v>0.01999031321449252</v>
+        <v>0.02756405947289053</v>
       </c>
       <c r="E9">
-        <v>0.1025107051959115</v>
+        <v>0.09309567515087913</v>
       </c>
       <c r="F9">
-        <v>0.9987702548256294</v>
+        <v>0.8799596411526522</v>
       </c>
       <c r="G9">
-        <v>0.9162583088906757</v>
+        <v>0.7982688039446657</v>
       </c>
       <c r="H9">
-        <v>0.01306568279553116</v>
+        <v>0.01131267657194525</v>
       </c>
       <c r="I9">
-        <v>0.06395078374683028</v>
+        <v>0.05102655848240722</v>
       </c>
       <c r="J9">
-        <v>0.5083685238414972</v>
+        <v>0.4750295202392039</v>
       </c>
       <c r="K9">
-        <v>0.7512815393186401</v>
+        <v>0.6039900013920487</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2758622145063541</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.217914022263372</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.098947045654782</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>5.194436606523027</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.959162059225832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>2.988504991085634</v>
+      </c>
+      <c r="R9">
+        <v>5.261220647408322</v>
+      </c>
+      <c r="S9">
+        <v>2.549363903388695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09089793811371294</v>
+        <v>0.06030305214362919</v>
       </c>
       <c r="D10">
-        <v>0.02390592725216933</v>
+        <v>0.03366270919841696</v>
       </c>
       <c r="E10">
-        <v>0.102752257853697</v>
+        <v>0.09120678827317708</v>
       </c>
       <c r="F10">
-        <v>1.165244752533553</v>
+        <v>1.011459793056943</v>
       </c>
       <c r="G10">
-        <v>1.07260391771257</v>
+        <v>0.95661260807708</v>
       </c>
       <c r="H10">
-        <v>0.01887719156007694</v>
+        <v>0.01641042358537081</v>
       </c>
       <c r="I10">
-        <v>0.07824051563493395</v>
+        <v>0.06167564396883574</v>
       </c>
       <c r="J10">
-        <v>0.577175343685866</v>
+        <v>0.4890483790277784</v>
       </c>
       <c r="K10">
-        <v>0.8682978169700561</v>
+        <v>0.682427091577658</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2832343983462877</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2740306311237006</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.601028412880055</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>6.070260449590478</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>3.435078559367071</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.460755401562466</v>
+      </c>
+      <c r="R10">
+        <v>6.155694609498426</v>
+      </c>
+      <c r="S10">
+        <v>2.904930924917352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09658372594133624</v>
+        <v>0.06367394264609416</v>
       </c>
       <c r="D11">
-        <v>0.02917487409806441</v>
+        <v>0.04117558510646546</v>
       </c>
       <c r="E11">
-        <v>0.1347694789364304</v>
+        <v>0.1115162487546932</v>
       </c>
       <c r="F11">
-        <v>1.171732861357853</v>
+        <v>0.9997740334011951</v>
       </c>
       <c r="G11">
-        <v>1.066329692555598</v>
+        <v>1.005659794798504</v>
       </c>
       <c r="H11">
-        <v>0.03619282254665634</v>
+        <v>0.03365533967927092</v>
       </c>
       <c r="I11">
-        <v>0.08361658796560167</v>
+        <v>0.06563721093182995</v>
       </c>
       <c r="J11">
-        <v>0.5700040927571877</v>
+        <v>0.4072056112060949</v>
       </c>
       <c r="K11">
-        <v>0.8658731825781558</v>
+        <v>0.6665757378027948</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2684140223365503</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2789602407948024</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.29084738493647</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>6.812020893644842</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>3.406959460051667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>3.143508861183705</v>
+      </c>
+      <c r="R11">
+        <v>6.912086741106748</v>
+      </c>
+      <c r="S11">
+        <v>2.818220478667797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1010496309378013</v>
+        <v>0.06617171984591508</v>
       </c>
       <c r="D12">
-        <v>0.03291412262525739</v>
+        <v>0.0461169134477899</v>
       </c>
       <c r="E12">
-        <v>0.2313478020574991</v>
+        <v>0.1976621846425886</v>
       </c>
       <c r="F12">
-        <v>1.144600431084697</v>
+        <v>0.9688224524241917</v>
       </c>
       <c r="G12">
-        <v>1.031357935891094</v>
+        <v>0.9998912896463423</v>
       </c>
       <c r="H12">
-        <v>0.07346204092407049</v>
+        <v>0.07098809993853195</v>
       </c>
       <c r="I12">
-        <v>0.08510772960787261</v>
+        <v>0.06664516950905153</v>
       </c>
       <c r="J12">
-        <v>0.5508572980130424</v>
+        <v>0.3609718538231874</v>
       </c>
       <c r="K12">
-        <v>0.8430559987298167</v>
+        <v>0.6431074531336094</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2568833003149678</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2735659417676501</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.941510182622324</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>7.269528445151423</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>3.292824266212335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>2.798800586675526</v>
+      </c>
+      <c r="R12">
+        <v>7.375836721092185</v>
+      </c>
+      <c r="S12">
+        <v>2.694512131231477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1034499513420144</v>
+        <v>0.0676114549283362</v>
       </c>
       <c r="D13">
-        <v>0.0357930643138431</v>
+        <v>0.04917051805976058</v>
       </c>
       <c r="E13">
-        <v>0.3806716287251604</v>
+        <v>0.3385707356745087</v>
       </c>
       <c r="F13">
-        <v>1.086745946240256</v>
+        <v>0.920885209286169</v>
       </c>
       <c r="G13">
-        <v>0.9687356600465051</v>
+        <v>0.9367585692773588</v>
       </c>
       <c r="H13">
-        <v>0.1275172819203618</v>
+        <v>0.1252261661577023</v>
       </c>
       <c r="I13">
-        <v>0.08373054905324473</v>
+        <v>0.0656505382309911</v>
       </c>
       <c r="J13">
-        <v>0.5195987222076042</v>
+        <v>0.3460613565732729</v>
       </c>
       <c r="K13">
-        <v>0.7989774393639522</v>
+        <v>0.6105306429508346</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2462563441930925</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.259266907402754</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.541771651415473</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>7.531686888051581</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>3.094637279020134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>2.414265758575468</v>
+      </c>
+      <c r="R13">
+        <v>7.635919120094115</v>
+      </c>
+      <c r="S13">
+        <v>2.533607029747799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1039259223660167</v>
+        <v>0.0680569936002513</v>
       </c>
       <c r="D14">
-        <v>0.03746560244599806</v>
+        <v>0.05047121476091831</v>
       </c>
       <c r="E14">
-        <v>0.5163137696459899</v>
+        <v>0.469925520497263</v>
       </c>
       <c r="F14">
-        <v>1.032080480693466</v>
+        <v>0.8790251668060307</v>
       </c>
       <c r="G14">
-        <v>0.91215571830638</v>
+        <v>0.8678554244582273</v>
       </c>
       <c r="H14">
-        <v>0.1756218311152793</v>
+        <v>0.1735004166790901</v>
       </c>
       <c r="I14">
-        <v>0.08153696798000798</v>
+        <v>0.06412475413319552</v>
       </c>
       <c r="J14">
-        <v>0.492087045162819</v>
+        <v>0.347800421825724</v>
       </c>
       <c r="K14">
-        <v>0.7579730358514922</v>
+        <v>0.582858400648405</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2388475627293616</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2450531151391928</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.243539660322512</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>7.626771731083522</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>2.917065674378364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>2.130616981974242</v>
+      </c>
+      <c r="R14">
+        <v>7.725719156801233</v>
+      </c>
+      <c r="S14">
+        <v>2.401927917584004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1031395437845291</v>
+        <v>0.06769937122315284</v>
       </c>
       <c r="D15">
-        <v>0.03769894158524778</v>
+        <v>0.05040202869207633</v>
       </c>
       <c r="E15">
-        <v>0.5508606737005763</v>
+        <v>0.5041786657024758</v>
       </c>
       <c r="F15">
-        <v>1.011624660901816</v>
+        <v>0.8643259327360511</v>
       </c>
       <c r="G15">
-        <v>0.8917793960969647</v>
+        <v>0.8396611758219592</v>
       </c>
       <c r="H15">
-        <v>0.1876510251191092</v>
+        <v>0.1856023238847513</v>
       </c>
       <c r="I15">
-        <v>0.08041937951711109</v>
+        <v>0.06338492179113508</v>
       </c>
       <c r="J15">
-        <v>0.4824808801436404</v>
+        <v>0.3531629019610989</v>
       </c>
       <c r="K15">
-        <v>0.7425621415074986</v>
+        <v>0.5731598356890402</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2368190204023861</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2393366468275602</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.158382286879558</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>7.605575322440814</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>2.853732793072737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>2.050778608727072</v>
+      </c>
+      <c r="R15">
+        <v>7.701560826548302</v>
+      </c>
+      <c r="S15">
+        <v>2.358710971998562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09763183704914269</v>
+        <v>0.06442273487771644</v>
       </c>
       <c r="D16">
-        <v>0.0353756593329777</v>
+        <v>0.04622928214175204</v>
       </c>
       <c r="E16">
-        <v>0.5158496294983266</v>
+        <v>0.4751512678480694</v>
       </c>
       <c r="F16">
-        <v>0.9511396125160729</v>
+        <v>0.826355856270979</v>
       </c>
       <c r="G16">
-        <v>0.8368494645381901</v>
+        <v>0.746104549302018</v>
       </c>
       <c r="H16">
-        <v>0.1728054403796762</v>
+        <v>0.1710736022108108</v>
       </c>
       <c r="I16">
-        <v>0.07444768895943099</v>
+        <v>0.05917499164388573</v>
       </c>
       <c r="J16">
-        <v>0.4589070057471645</v>
+        <v>0.3967931472510884</v>
       </c>
       <c r="K16">
-        <v>0.7002470035755124</v>
+        <v>0.5516164804916173</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2371117649762695</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2205703944042696</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.035607276357695</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>7.163945129255865</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>2.687749851291528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.943704255930214</v>
+      </c>
+      <c r="R16">
+        <v>7.245687595413187</v>
+      </c>
+      <c r="S16">
+        <v>2.268835610897668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09312568506546626</v>
+        <v>0.06172894218898506</v>
       </c>
       <c r="D17">
-        <v>0.03270778268059615</v>
+        <v>0.0425433520849694</v>
       </c>
       <c r="E17">
-        <v>0.4118871276910241</v>
+        <v>0.3768646250994934</v>
       </c>
       <c r="F17">
-        <v>0.9337632406563614</v>
+        <v>0.8179247762379021</v>
       </c>
       <c r="G17">
-        <v>0.8246281381744751</v>
+        <v>0.7169387711531954</v>
       </c>
       <c r="H17">
-        <v>0.1340502620858928</v>
+        <v>0.1324625091681639</v>
       </c>
       <c r="I17">
-        <v>0.07108091028036601</v>
+        <v>0.05676424426276228</v>
       </c>
       <c r="J17">
-        <v>0.4554111763240627</v>
+        <v>0.4226882202916187</v>
       </c>
       <c r="K17">
-        <v>0.6894427057796761</v>
+        <v>0.5486580571949062</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.24101280047568</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2132227573465428</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.096119905067454</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>6.776166861502531</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>2.654397444078882</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>2.007993520162373</v>
+      </c>
+      <c r="R17">
+        <v>6.851141727625759</v>
+      </c>
+      <c r="S17">
+        <v>2.264592324628154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08994199140663284</v>
+        <v>0.05965779043183872</v>
       </c>
       <c r="D18">
-        <v>0.02944463163701272</v>
+        <v>0.03863165323763695</v>
       </c>
       <c r="E18">
-        <v>0.269263968977917</v>
+        <v>0.2407440839208732</v>
       </c>
       <c r="F18">
-        <v>0.9528599041751278</v>
+        <v>0.8377761036237814</v>
       </c>
       <c r="G18">
-        <v>0.8495325301991699</v>
+        <v>0.7309152623013091</v>
       </c>
       <c r="H18">
-        <v>0.08139930699234554</v>
+        <v>0.07981971603709326</v>
       </c>
       <c r="I18">
-        <v>0.0694464030325026</v>
+        <v>0.05548220278718485</v>
       </c>
       <c r="J18">
-        <v>0.469569721797356</v>
+        <v>0.4477697466131474</v>
       </c>
       <c r="K18">
-        <v>0.7065756301774826</v>
+        <v>0.5649388970356171</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2498591511408961</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2160853741594551</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.331888789163742</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>6.395905639178466</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2.736750676160767</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>2.239593337725324</v>
+      </c>
+      <c r="R18">
+        <v>6.46805028375644</v>
+      </c>
+      <c r="S18">
+        <v>2.34721514696281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08650299150077245</v>
+        <v>0.0578368228300512</v>
       </c>
       <c r="D19">
-        <v>0.02631800236195048</v>
+        <v>0.03511818499116259</v>
       </c>
       <c r="E19">
-        <v>0.1523723032772821</v>
+        <v>0.1310739721374752</v>
       </c>
       <c r="F19">
-        <v>0.9964796521667125</v>
+        <v>0.8767839085199682</v>
       </c>
       <c r="G19">
-        <v>0.8990528976878238</v>
+        <v>0.7715721376848848</v>
       </c>
       <c r="H19">
-        <v>0.03770460635082884</v>
+        <v>0.03599626445137716</v>
       </c>
       <c r="I19">
-        <v>0.06966179509352877</v>
+        <v>0.05568645011633322</v>
       </c>
       <c r="J19">
-        <v>0.4950410671208374</v>
+        <v>0.4735682294702599</v>
       </c>
       <c r="K19">
-        <v>0.7403249636120393</v>
+        <v>0.5921984469564663</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2608258819642941</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2256212685582426</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.705372417257934</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>6.059329470421858</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>2.895016957459404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>2.603342489535621</v>
+      </c>
+      <c r="R19">
+        <v>6.131171253896014</v>
+      </c>
+      <c r="S19">
+        <v>2.486954981223789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08558994523671259</v>
+        <v>0.05795616046646401</v>
       </c>
       <c r="D20">
-        <v>0.02318607404779627</v>
+        <v>0.03217302627279395</v>
       </c>
       <c r="E20">
-        <v>0.1024774746759152</v>
+        <v>0.09148852942647068</v>
       </c>
       <c r="F20">
-        <v>1.114626860555958</v>
+        <v>0.9748115322722555</v>
       </c>
       <c r="G20">
-        <v>1.023899334194539</v>
+        <v>0.8921268680225296</v>
       </c>
       <c r="H20">
-        <v>0.0171880193944185</v>
+        <v>0.01494846908414305</v>
       </c>
       <c r="I20">
-        <v>0.07465237310582484</v>
+        <v>0.05936983585998146</v>
       </c>
       <c r="J20">
-        <v>0.5552938336795563</v>
+        <v>0.5044124044427463</v>
       </c>
       <c r="K20">
-        <v>0.8287693486151966</v>
+        <v>0.6571870889122025</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2796764680261958</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2572068685588249</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.461358845245968</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>5.845088195290884</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>3.285909821101029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.332964734238644</v>
+      </c>
+      <c r="R20">
+        <v>5.923260718201163</v>
+      </c>
+      <c r="S20">
+        <v>2.804349596347038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.093377621523004</v>
+        <v>0.06279585562138834</v>
       </c>
       <c r="D21">
-        <v>0.02560504753782666</v>
+        <v>0.03752894710346766</v>
       </c>
       <c r="E21">
-        <v>0.1061590370550816</v>
+        <v>0.09567393762159249</v>
       </c>
       <c r="F21">
-        <v>1.256598984436181</v>
+        <v>1.066264053863648</v>
       </c>
       <c r="G21">
-        <v>1.159432760072178</v>
+        <v>1.11446911708876</v>
       </c>
       <c r="H21">
-        <v>0.02266467538248218</v>
+        <v>0.01963755759317831</v>
       </c>
       <c r="I21">
-        <v>0.08628549920025375</v>
+        <v>0.06758925450861941</v>
       </c>
       <c r="J21">
-        <v>0.615913793912199</v>
+        <v>0.4110651744032765</v>
       </c>
       <c r="K21">
-        <v>0.9297811411280179</v>
+        <v>0.7110234923966132</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2829179119857628</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2986504655816589</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.944260486896837</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>6.458141647974799</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>3.700452575185523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>3.770119771000054</v>
+      </c>
+      <c r="R21">
+        <v>6.562933161626972</v>
+      </c>
+      <c r="S21">
+        <v>3.043509853495237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09962067746874936</v>
+        <v>0.06640631411234743</v>
       </c>
       <c r="D22">
-        <v>0.02726085709307213</v>
+        <v>0.04127563112791677</v>
       </c>
       <c r="E22">
-        <v>0.1074050320011275</v>
+        <v>0.09683755879488398</v>
       </c>
       <c r="F22">
-        <v>1.348947228899462</v>
+        <v>1.123424000504116</v>
       </c>
       <c r="G22">
-        <v>1.247295196449755</v>
+        <v>1.271312764986305</v>
       </c>
       <c r="H22">
-        <v>0.02637074624448088</v>
+        <v>0.02279167830547879</v>
       </c>
       <c r="I22">
-        <v>0.09398821103600952</v>
+        <v>0.07287585628172177</v>
       </c>
       <c r="J22">
-        <v>0.6552179423220252</v>
+        <v>0.3500793331904362</v>
       </c>
       <c r="K22">
-        <v>0.9966207551381387</v>
+        <v>0.7454191850972194</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2846751142078361</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3259623449716358</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.229809511422332</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>6.876774887318334</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>3.969194446665711</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.024336285373266</v>
+      </c>
+      <c r="R22">
+        <v>7.000260111750038</v>
+      </c>
+      <c r="S22">
+        <v>3.190300162829487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09731005341961918</v>
+        <v>0.06470681391908251</v>
       </c>
       <c r="D23">
-        <v>0.02626206951501331</v>
+        <v>0.03894057388333749</v>
       </c>
       <c r="E23">
-        <v>0.1067415705288521</v>
+        <v>0.09610788758375755</v>
       </c>
       <c r="F23">
-        <v>1.302019742271938</v>
+        <v>1.098095584429444</v>
       </c>
       <c r="G23">
-        <v>1.203065273169727</v>
+        <v>1.176959477316217</v>
       </c>
       <c r="H23">
-        <v>0.02438200473312557</v>
+        <v>0.021115561961356</v>
       </c>
       <c r="I23">
-        <v>0.08974803943806364</v>
+        <v>0.06989123009480025</v>
       </c>
       <c r="J23">
-        <v>0.6355548341060739</v>
+        <v>0.3965354370269552</v>
       </c>
       <c r="K23">
-        <v>0.9641632873591846</v>
+        <v>0.7319059328893402</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2854196248347876</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3133516379127101</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.07955019670392</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>6.652068236592754</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>3.834161245603127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>3.893527073313692</v>
+      </c>
+      <c r="R23">
+        <v>6.763860709335063</v>
+      </c>
+      <c r="S23">
+        <v>3.129996151811923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08680061748584933</v>
+        <v>0.05826299450994732</v>
       </c>
       <c r="D24">
-        <v>0.02269105640342417</v>
+        <v>0.0315778222697034</v>
       </c>
       <c r="E24">
-        <v>0.1042597718690139</v>
+        <v>0.0940731553136116</v>
       </c>
       <c r="F24">
-        <v>1.122066347107506</v>
+        <v>0.981731767400845</v>
       </c>
       <c r="G24">
-        <v>1.032597477747018</v>
+        <v>0.8990290927406619</v>
       </c>
       <c r="H24">
-        <v>0.01742113219095609</v>
+        <v>0.01515575622585391</v>
       </c>
       <c r="I24">
-        <v>0.07442968963843111</v>
+        <v>0.05902107420111502</v>
       </c>
       <c r="J24">
-        <v>0.559719413403684</v>
+        <v>0.5095887176512406</v>
       </c>
       <c r="K24">
-        <v>0.8367299723667614</v>
+        <v>0.6640514431291749</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2824143413124176</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2596579628555347</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.506444726448677</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>5.803316593378611</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>3.313608982448841</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.377049326770745</v>
+      </c>
+      <c r="R24">
+        <v>5.881273427340943</v>
+      </c>
+      <c r="S24">
+        <v>2.829755644537471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07528106023295322</v>
+        <v>0.05193542577127808</v>
       </c>
       <c r="D25">
-        <v>0.01888123208560799</v>
+        <v>0.02576351594646553</v>
       </c>
       <c r="E25">
-        <v>0.101598806590427</v>
+        <v>0.09264094971698889</v>
       </c>
       <c r="F25">
-        <v>0.9311897810954406</v>
+        <v>0.8248895356314705</v>
       </c>
       <c r="G25">
-        <v>0.8514597028944735</v>
+        <v>0.7367539539565797</v>
       </c>
       <c r="H25">
-        <v>0.01102215420954394</v>
+        <v>0.009518983936869403</v>
       </c>
       <c r="I25">
-        <v>0.0589857692605662</v>
+        <v>0.04746741919534525</v>
       </c>
       <c r="J25">
-        <v>0.4795036558469548</v>
+        <v>0.4621698345998198</v>
       </c>
       <c r="K25">
-        <v>0.7007697991204083</v>
+        <v>0.5680741326139014</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.270320996310879</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1951880510786452</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.886835825590822</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>4.887987331011743</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>2.761197963523188</v>
+        <v>2.787283200702632</v>
+      </c>
+      <c r="R25">
+        <v>4.94835409538598</v>
+      </c>
+      <c r="S25">
+        <v>2.39481840744952</v>
       </c>
     </row>
   </sheetData>
